--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - CAP.xlsx
@@ -5,15 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="HoReCa Bar Tavern_Night Club" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AC$44</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$AE$1:$AM$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$ast$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$AE$1:$AM$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$ast$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$AE$1:$AM$44</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -313,12 +314,8 @@
   <si>
     <t xml:space="preserve">12
 13
-19
 14
 15
-16
-17
-18
 </t>
   </si>
   <si>
@@ -526,7 +523,7 @@
     <t xml:space="preserve">34
 35
 36
-37</t>
+</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler is Visible</t>
@@ -668,17 +665,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00%"/>
-    <numFmt numFmtId="166" formatCode="0"/>
-    <numFmt numFmtId="167" formatCode="0.00"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00000\ _₽_-;\-* #,##0.00000\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="0%"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="167" formatCode="0"/>
+    <numFmt numFmtId="168" formatCode="0.00"/>
+    <numFmt numFmtId="169" formatCode="0%"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -708,14 +704,29 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -724,8 +735,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF579D1C"/>
+        <bgColor rgb="FF808000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
@@ -770,17 +787,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -789,27 +806,31 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -817,20 +838,20 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -841,15 +862,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -857,11 +878,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -878,6 +899,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF92D050"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF579D1C"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -897,2022 +978,2013 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="AI7" activeCellId="0" sqref="AI7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.2418604651163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6837209302326"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.7627906976744"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.5023255813953"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.7767441860465"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="50.8651162790698"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="55.2046511627907"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="30.7813953488372"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.1162790697674"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.3302325581395"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="14.8558139534884"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.4"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="225.120930232558"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="138.083720930233"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.7348837209302"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="17.753488372093"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="34.0372093023256"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="20.8325581395349"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="15.0372093023256"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="8.88372093023256"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="15.9395348837209"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.906976744186"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="19.3767441860465"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="24.6279069767442"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.9906976744186"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="67.8744186046512"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="22.093023255814"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="27.706976744186"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="28.246511627907"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="10.5023255813953"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="17.9348837209302"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="12.3209302325581"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="11.4186046511628"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="11.9627906976744"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="32.7674418604651"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="6.16744186046512"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="7.44186046511628"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="9.6093023255814"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="7.98139534883721"/>
-    <col collapsed="false" hidden="false" max="1021" min="40" style="1" width="10.5023255813953"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="10.5023255813953"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.98139534883721"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.8093023255814"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.2139534883721"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="52.4232558139535"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="56.8558139534884"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="31.6279069767442"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="7.87441860465116"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="231.972093023256"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="142.260465116279"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.8139534883721"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="34.9488372093023"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.706976744186"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="15.3813953488372"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.7813953488372"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.0279069767442"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="17.353488372093"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.7674418604651"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="25.7209302325581"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="69.8976744186047"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="20.0604651162791"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.8418604651163"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="26.4604651162791"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="18.3348837209302"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="14.5209302325581"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="14.4"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="33.7209302325581"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.98139534883721"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.2139534883721"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="1021" min="39" style="1" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="3" width="10.706976744186"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="8" customFormat="true" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4" t="s">
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+    <row r="2" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="n">
         <v>41</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="10" t="n">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="AK2" s="10" t="n">
+      <c r="AK2" s="12" t="n">
         <v>300</v>
       </c>
-      <c r="AL2" s="11" t="s">
+      <c r="AL2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AM2" s="8"/>
+      <c r="AM2" s="9"/>
     </row>
-    <row r="3" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+    <row r="3" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="n">
         <v>42</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="10" t="n">
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="AK3" s="10" t="n">
+      <c r="AK3" s="12" t="n">
         <v>310</v>
       </c>
-      <c r="AL3" s="11" t="s">
+      <c r="AL3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AM3" s="10"/>
+      <c r="AM3" s="12"/>
     </row>
-    <row r="4" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+    <row r="4" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="n">
         <v>43</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="10" t="n">
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="AK4" s="10" t="n">
+      <c r="AK4" s="12" t="n">
         <v>312</v>
       </c>
-      <c r="AL4" s="8" t="n">
+      <c r="AL4" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="AM4" s="10" t="n">
+      <c r="AM4" s="12" t="n">
         <v>310</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+    <row r="5" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="n">
         <v>44</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="8"/>
-      <c r="AI5" s="8"/>
-      <c r="AJ5" s="10" t="n">
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="AK5" s="10" t="n">
+      <c r="AK5" s="12" t="n">
         <v>400</v>
       </c>
-      <c r="AL5" s="11" t="s">
+      <c r="AL5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="AM5" s="10"/>
+      <c r="AM5" s="12"/>
     </row>
-    <row r="6" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+    <row r="6" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8" t="s">
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8" t="n">
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="AK6" s="8" t="n">
+      <c r="AK6" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AL6" s="13" t="s">
+      <c r="AL6" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="AM6" s="8" t="n">
+      <c r="AM6" s="9" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+    <row r="7" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8" t="n">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8" t="s">
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="N7" s="10" t="n">
+      <c r="N7" s="12" t="n">
         <v>50112128</v>
       </c>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="8" t="s">
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S7" s="8" t="s">
+      <c r="S7" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8" t="s">
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8" t="s">
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8" t="s">
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AF7" s="15" t="n">
+      <c r="AF7" s="11" t="n">
         <v>0.050031</v>
       </c>
-      <c r="AG7" s="8"/>
-      <c r="AH7" s="8"/>
-      <c r="AI7" s="8"/>
-      <c r="AJ7" s="8" t="n">
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AK7" s="8" t="n">
+      <c r="AK7" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="AL7" s="8"/>
-      <c r="AM7" s="8" t="n">
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="9" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
+    <row r="8" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8" t="n">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="14" t="s">
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="N8" s="10" t="n">
+      <c r="N8" s="12" t="n">
         <v>40822341</v>
       </c>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="8" t="s">
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S8" s="8" t="s">
+      <c r="S8" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8" t="s">
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8" t="s">
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8" t="s">
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AF8" s="15" t="n">
+      <c r="AF8" s="11" t="n">
         <v>0.050004</v>
       </c>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="8"/>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="8" t="n">
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AK8" s="8" t="n">
+      <c r="AK8" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AL8" s="8"/>
-      <c r="AM8" s="8" t="n">
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="9" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
+    <row r="9" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8" t="n">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8" t="s">
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N9" s="10" t="n">
+      <c r="N9" s="12" t="n">
         <v>90375408</v>
       </c>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="8" t="s">
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S9" s="8" t="s">
+      <c r="S9" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8" t="s">
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8" t="s">
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8" t="s">
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AF9" s="15" t="n">
+      <c r="AF9" s="11" t="n">
         <v>0.033993</v>
       </c>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="8"/>
-      <c r="AI9" s="8"/>
-      <c r="AJ9" s="8" t="n">
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AK9" s="8" t="n">
+      <c r="AK9" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="AL9" s="8"/>
-      <c r="AM9" s="8" t="n">
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+    <row r="10" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8" t="n">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="14" t="s">
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="N10" s="10" t="n">
+      <c r="N10" s="12" t="n">
         <v>40822549</v>
       </c>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="8" t="s">
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S10" s="8" t="s">
+      <c r="S10" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8" t="s">
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8" t="s">
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8" t="s">
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AF10" s="15" t="n">
+      <c r="AF10" s="11" t="n">
         <v>0.033993</v>
       </c>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="8"/>
-      <c r="AI10" s="8"/>
-      <c r="AJ10" s="8" t="n">
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AK10" s="8" t="n">
+      <c r="AK10" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="AL10" s="8"/>
-      <c r="AM10" s="8" t="n">
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="9" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
+    <row r="11" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8" t="n">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="14" t="s">
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="N11" s="10" t="n">
+      <c r="N11" s="12" t="n">
         <v>42357278</v>
       </c>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="8" t="s">
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S11" s="8" t="s">
+      <c r="S11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8" t="s">
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8" t="s">
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8" t="s">
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AF11" s="15" t="n">
+      <c r="AF11" s="11" t="n">
         <v>0.033993</v>
       </c>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="8"/>
-      <c r="AI11" s="8"/>
-      <c r="AJ11" s="8" t="n">
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9"/>
+      <c r="AJ11" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AK11" s="8" t="n">
+      <c r="AK11" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="AL11" s="8"/>
-      <c r="AM11" s="8" t="n">
+      <c r="AL11" s="9"/>
+      <c r="AM11" s="9" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
+    <row r="12" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8" t="n">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="14" t="s">
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="N12" s="10" t="n">
+      <c r="N12" s="12" t="n">
         <v>1111111</v>
       </c>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="8" t="s">
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S12" s="8" t="s">
+      <c r="S12" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8" t="s">
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8" t="s">
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="8" t="s">
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AF12" s="15" t="n">
+      <c r="AF12" s="11" t="n">
         <v>0.033993</v>
       </c>
-      <c r="AG12" s="8"/>
-      <c r="AH12" s="8"/>
-      <c r="AI12" s="8"/>
-      <c r="AJ12" s="8" t="n">
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AK12" s="8" t="n">
+      <c r="AK12" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="AL12" s="8"/>
-      <c r="AM12" s="8" t="n">
+      <c r="AL12" s="9"/>
+      <c r="AM12" s="9" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
+    <row r="13" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8" t="n">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="14" t="s">
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="N13" s="14" t="s">
+      <c r="N13" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="8" t="s">
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S13" s="8" t="s">
+      <c r="S13" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8" t="s">
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8" t="s">
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8" t="s">
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AF13" s="15" t="n">
+      <c r="AF13" s="11" t="n">
         <v>0.033993</v>
       </c>
-      <c r="AG13" s="8"/>
-      <c r="AH13" s="8"/>
-      <c r="AI13" s="8"/>
-      <c r="AJ13" s="8" t="n">
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AK13" s="8" t="n">
+      <c r="AK13" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="AL13" s="8"/>
-      <c r="AM13" s="8" t="n">
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="9" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="n">
+    <row r="14" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8" t="s">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="8" t="s">
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="8"/>
-      <c r="AH14" s="8"/>
-      <c r="AI14" s="8"/>
-      <c r="AJ14" s="8" t="n">
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="AK14" s="8" t="n">
+      <c r="AK14" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="AL14" s="13" t="n">
+      <c r="AL14" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="AM14" s="8" t="n">
+      <c r="AM14" s="9" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="n">
+    <row r="15" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8" t="n">
+      <c r="I15" s="9"/>
+      <c r="J15" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="14" t="s">
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="N15" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10" t="s">
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="S15" s="8" t="s">
+      <c r="S15" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8" t="s">
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8" t="s">
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="8" t="s">
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AF15" s="15" t="n">
+      <c r="AF15" s="11" t="n">
         <v>0.050002</v>
       </c>
       <c r="AG15" s="16"/>
-      <c r="AH15" s="8"/>
-      <c r="AI15" s="8"/>
-      <c r="AJ15" s="8" t="n">
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AK15" s="8" t="n">
+      <c r="AK15" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="AL15" s="8"/>
-      <c r="AM15" s="8" t="n">
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
+    <row r="16" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8" t="s">
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="8" t="s">
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="8"/>
-      <c r="AH16" s="8"/>
-      <c r="AI16" s="8"/>
-      <c r="AJ16" s="8" t="n">
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="AK16" s="8" t="n">
+      <c r="AK16" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="AL16" s="13" t="s">
+      <c r="AL16" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="AM16" s="8" t="n">
+      <c r="AM16" s="9" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="n">
+    <row r="17" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8" t="n">
+      <c r="I17" s="9"/>
+      <c r="J17" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8" t="s">
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="N17" s="10" t="n">
+      <c r="N17" s="12" t="n">
         <v>4650075420386</v>
       </c>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="8" t="s">
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S17" s="8" t="s">
+      <c r="S17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8" t="s">
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8" t="s">
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8" t="s">
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AF17" s="15" t="n">
+      <c r="AF17" s="11" t="n">
         <v>0.050002</v>
       </c>
-      <c r="AG17" s="8"/>
-      <c r="AH17" s="8"/>
-      <c r="AI17" s="8"/>
-      <c r="AJ17" s="8" t="n">
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="9"/>
+      <c r="AJ17" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AK17" s="8" t="n">
+      <c r="AK17" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="AL17" s="8"/>
-      <c r="AM17" s="8" t="n">
+      <c r="AL17" s="9"/>
+      <c r="AM17" s="9" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="n">
+    <row r="18" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="C18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8" t="n">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8" t="s">
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="N18" s="10" t="n">
+      <c r="N18" s="12" t="n">
         <v>4650075420362</v>
       </c>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="8" t="s">
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S18" s="8" t="s">
+      <c r="S18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8" t="s">
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8" t="s">
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="8" t="s">
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AF18" s="15" t="n">
+      <c r="AF18" s="11" t="n">
         <v>0.035006</v>
       </c>
-      <c r="AG18" s="8"/>
-      <c r="AH18" s="8"/>
-      <c r="AI18" s="8"/>
-      <c r="AJ18" s="8" t="n">
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AK18" s="8" t="n">
+      <c r="AK18" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="AL18" s="8"/>
-      <c r="AM18" s="8" t="n">
+      <c r="AL18" s="9"/>
+      <c r="AM18" s="9" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="n">
+    <row r="19" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="C19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8" t="n">
+      <c r="I19" s="9"/>
+      <c r="J19" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8" t="s">
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="N19" s="10" t="n">
+      <c r="N19" s="12" t="n">
         <v>4650075420409</v>
       </c>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="8" t="s">
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S19" s="8" t="s">
+      <c r="S19" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8" t="s">
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8" t="s">
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="8" t="s">
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AF19" s="17" t="n">
+      <c r="AF19" s="11" t="n">
         <v>0.035006</v>
       </c>
-      <c r="AG19" s="8"/>
-      <c r="AH19" s="8"/>
-      <c r="AI19" s="8"/>
-      <c r="AJ19" s="8" t="n">
+      <c r="AG19" s="9"/>
+      <c r="AH19" s="9"/>
+      <c r="AI19" s="9"/>
+      <c r="AJ19" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AK19" s="8" t="n">
+      <c r="AK19" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="AL19" s="8"/>
-      <c r="AM19" s="8" t="n">
+      <c r="AL19" s="9"/>
+      <c r="AM19" s="9" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="n">
+    <row r="20" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="C20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="9" t="s">
         <v>81</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8" t="n">
+      <c r="I20" s="9"/>
+      <c r="J20" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="8" t="s">
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8" t="s">
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="8" t="s">
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AF20" s="17" t="n">
+      <c r="AF20" s="11" t="n">
         <v>0.025001</v>
       </c>
-      <c r="AG20" s="8"/>
-      <c r="AH20" s="8"/>
-      <c r="AI20" s="8"/>
-      <c r="AJ20" s="8" t="n">
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AK20" s="8" t="n">
+      <c r="AK20" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="AL20" s="13" t="s">
+      <c r="AL20" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="AM20" s="8" t="n">
+      <c r="AM20" s="9" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="n">
+    <row r="21" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="C21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8" t="n">
+      <c r="I21" s="9"/>
+      <c r="J21" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8" t="s">
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="N21" s="10" t="n">
+      <c r="N21" s="12" t="n">
         <v>4650075420508</v>
       </c>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="8" t="s">
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S21" s="8" t="s">
+      <c r="S21" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8" t="s">
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8" t="s">
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8" t="s">
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AF21" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="8"/>
-      <c r="AH21" s="8"/>
-      <c r="AI21" s="8"/>
-      <c r="AJ21" s="8" t="n">
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="9"/>
+      <c r="AJ21" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="AK21" s="8" t="n">
+      <c r="AK21" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="AL21" s="8"/>
-      <c r="AM21" s="8" t="n">
-        <v>14</v>
+      <c r="AL21" s="9"/>
+      <c r="AM21" s="19" t="n">
+        <v>15</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="n">
+    <row r="22" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="C22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8" t="n">
+      <c r="I22" s="9"/>
+      <c r="J22" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8" t="s">
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="N22" s="10" t="n">
+      <c r="N22" s="12" t="n">
         <v>4650075420423</v>
       </c>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="8" t="s">
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S22" s="8" t="s">
+      <c r="S22" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8" t="s">
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8" t="s">
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8" t="s">
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AF22" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="8"/>
-      <c r="AI22" s="8"/>
-      <c r="AJ22" s="8" t="n">
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="AK22" s="8" t="n">
+      <c r="AK22" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="AL22" s="8"/>
-      <c r="AM22" s="8" t="n">
-        <v>14</v>
+      <c r="AL22" s="9"/>
+      <c r="AM22" s="19" t="n">
+        <v>15</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="n">
+    <row r="23" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="C23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8" t="n">
+      <c r="I23" s="9"/>
+      <c r="J23" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8" t="s">
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="N23" s="10" t="n">
+      <c r="N23" s="12" t="n">
         <v>4650075420485</v>
       </c>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="8" t="s">
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S23" s="8" t="s">
+      <c r="S23" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8" t="s">
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8" t="s">
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="8" t="s">
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AF23" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="8"/>
-      <c r="AH23" s="8"/>
-      <c r="AI23" s="8"/>
-      <c r="AJ23" s="8" t="n">
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="AK23" s="8" t="n">
+      <c r="AK23" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="AL23" s="8"/>
-      <c r="AM23" s="8" t="n">
-        <v>14</v>
+      <c r="AL23" s="9"/>
+      <c r="AM23" s="19" t="n">
+        <v>15</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="n">
+    <row r="24" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="8" t="s">
+      <c r="C24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8" t="n">
+      <c r="I24" s="9"/>
+      <c r="J24" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8" t="s">
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="N24" s="10" t="n">
+      <c r="N24" s="12" t="n">
         <v>4650075420447</v>
       </c>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="8" t="s">
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S24" s="8" t="s">
+      <c r="S24" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8" t="s">
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8" t="s">
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="8"/>
-      <c r="AE24" s="8" t="s">
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AF24" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="8"/>
-      <c r="AH24" s="8"/>
-      <c r="AI24" s="8"/>
-      <c r="AJ24" s="8" t="n">
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="9"/>
+      <c r="AJ24" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="AK24" s="8" t="n">
+      <c r="AK24" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="AL24" s="8"/>
-      <c r="AM24" s="8" t="n">
-        <v>14</v>
+      <c r="AL24" s="9"/>
+      <c r="AM24" s="19" t="n">
+        <v>15</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="n">
+    <row r="25" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="8" t="s">
+      <c r="C25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8" t="s">
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="8"/>
-      <c r="AD25" s="8"/>
-      <c r="AE25" s="8" t="s">
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AF25" s="12"/>
-      <c r="AG25" s="8"/>
-      <c r="AH25" s="8"/>
-      <c r="AI25" s="8"/>
-      <c r="AJ25" s="8" t="n">
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="9"/>
+      <c r="AI25" s="9"/>
+      <c r="AJ25" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="AK25" s="8" t="n">
+      <c r="AK25" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="AL25" s="13" t="n">
+      <c r="AL25" s="14" t="n">
         <v>21</v>
       </c>
-      <c r="AM25" s="8" t="n">
+      <c r="AM25" s="9" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="n">
+    <row r="26" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="8" t="s">
+      <c r="C26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8" t="n">
+      <c r="I26" s="9"/>
+      <c r="J26" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10" t="s">
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="Q26" s="10" t="s">
+      <c r="Q26" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="R26" s="8" t="s">
+      <c r="R26" s="9" t="s">
         <v>61</v>
       </c>
       <c r="S26" s="18" t="s">
@@ -2921,1384 +2993,1372 @@
       <c r="T26" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8" t="s">
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8" t="s">
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="8"/>
-      <c r="AD26" s="8"/>
-      <c r="AE26" s="8" t="s">
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AF26" s="17" t="n">
+      <c r="AF26" s="11" t="n">
         <v>0.034983</v>
       </c>
-      <c r="AG26" s="8"/>
-      <c r="AH26" s="8"/>
-      <c r="AI26" s="8"/>
-      <c r="AJ26" s="8" t="n">
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="9"/>
+      <c r="AI26" s="9"/>
+      <c r="AJ26" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AK26" s="8" t="n">
+      <c r="AK26" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="AL26" s="8"/>
-      <c r="AM26" s="8" t="n">
+      <c r="AL26" s="9"/>
+      <c r="AM26" s="9" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="n">
+    <row r="27" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="8" t="s">
+      <c r="C27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8" t="n">
+      <c r="I27" s="9"/>
+      <c r="J27" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8" t="s">
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="N27" s="8" t="s">
+      <c r="N27" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8" t="s">
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S27" s="8" t="s">
+      <c r="S27" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8" t="s">
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="Z27" s="8" t="s">
+      <c r="Z27" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="8"/>
-      <c r="AC27" s="8"/>
-      <c r="AD27" s="8"/>
-      <c r="AE27" s="8" t="s">
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AF27" s="12" t="n">
-        <v>0.1666666</v>
+      <c r="AF27" s="11" t="n">
+        <v>0.166667</v>
       </c>
       <c r="AG27" s="16"/>
-      <c r="AH27" s="20"/>
-      <c r="AI27" s="8"/>
-      <c r="AJ27" s="8" t="n">
+      <c r="AH27" s="21"/>
+      <c r="AI27" s="9"/>
+      <c r="AJ27" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="AK27" s="8" t="n">
+      <c r="AK27" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="AL27" s="8"/>
-      <c r="AM27" s="8" t="n">
+      <c r="AL27" s="9"/>
+      <c r="AM27" s="9" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="n">
+    <row r="28" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="8" t="s">
+      <c r="C28" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8" t="n">
+      <c r="I28" s="9"/>
+      <c r="J28" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8" t="s">
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8" t="s">
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="Z28" s="8" t="s">
+      <c r="Z28" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="AA28" s="8"/>
-      <c r="AB28" s="8"/>
-      <c r="AC28" s="8"/>
-      <c r="AD28" s="8"/>
-      <c r="AE28" s="8" t="s">
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AF28" s="12" t="n">
-        <v>0.0833333</v>
+      <c r="AF28" s="11" t="n">
+        <v>0.083333</v>
       </c>
       <c r="AG28" s="16"/>
-      <c r="AH28" s="8"/>
-      <c r="AI28" s="8"/>
-      <c r="AJ28" s="8" t="n">
+      <c r="AH28" s="9"/>
+      <c r="AI28" s="9"/>
+      <c r="AJ28" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="AK28" s="8" t="n">
+      <c r="AK28" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="AL28" s="8" t="n">
+      <c r="AL28" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="AM28" s="13" t="n">
+      <c r="AM28" s="14" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="n">
+    <row r="29" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="8" t="s">
+      <c r="C29" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8" t="n">
+      <c r="I29" s="9"/>
+      <c r="J29" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8" t="s">
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="N29" s="8" t="s">
+      <c r="N29" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="O29" s="8" t="s">
+      <c r="O29" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8" t="s">
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S29" s="8" t="s">
+      <c r="S29" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8" t="s">
+      <c r="T29" s="9"/>
+      <c r="U29" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8" t="s">
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="Z29" s="8" t="s">
+      <c r="Z29" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="AA29" s="8"/>
-      <c r="AB29" s="8"/>
-      <c r="AC29" s="8"/>
-      <c r="AD29" s="8"/>
-      <c r="AE29" s="8" t="s">
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AF29" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF29" s="11"/>
       <c r="AG29" s="16"/>
-      <c r="AH29" s="8"/>
-      <c r="AI29" s="8"/>
-      <c r="AJ29" s="8" t="n">
+      <c r="AH29" s="9"/>
+      <c r="AI29" s="9"/>
+      <c r="AJ29" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AK29" s="8" t="n">
+      <c r="AK29" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="AL29" s="8"/>
-      <c r="AM29" s="8" t="n">
+      <c r="AL29" s="9"/>
+      <c r="AM29" s="9" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="n">
+    <row r="30" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="n">
         <v>26</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="8" t="s">
+      <c r="C30" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8" t="n">
+      <c r="I30" s="9"/>
+      <c r="J30" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8" t="s">
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8" t="s">
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="Z30" s="8" t="s">
+      <c r="Z30" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="8"/>
-      <c r="AC30" s="8"/>
-      <c r="AD30" s="8"/>
-      <c r="AE30" s="8" t="s">
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="9"/>
+      <c r="AD30" s="9"/>
+      <c r="AE30" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AF30" s="12" t="n">
-        <v>0.0833333</v>
+      <c r="AF30" s="11" t="n">
+        <v>0.083333</v>
       </c>
       <c r="AG30" s="16"/>
-      <c r="AH30" s="8"/>
-      <c r="AI30" s="8"/>
-      <c r="AJ30" s="8" t="n">
+      <c r="AH30" s="9"/>
+      <c r="AI30" s="9"/>
+      <c r="AJ30" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="AK30" s="8" t="n">
+      <c r="AK30" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="AL30" s="13" t="s">
+      <c r="AL30" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="AM30" s="13" t="n">
+      <c r="AM30" s="14" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="n">
+    <row r="31" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="8" t="s">
+      <c r="C31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8" t="n">
+      <c r="I31" s="9"/>
+      <c r="J31" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8" t="s">
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8" t="s">
+      <c r="N31" s="9"/>
+      <c r="O31" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8" t="s">
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S31" s="8" t="s">
+      <c r="S31" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8" t="s">
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="Z31" s="8" t="s">
+      <c r="Z31" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="AA31" s="8"/>
-      <c r="AB31" s="8"/>
-      <c r="AC31" s="8"/>
-      <c r="AD31" s="8"/>
-      <c r="AE31" s="8" t="s">
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="9"/>
+      <c r="AC31" s="9"/>
+      <c r="AD31" s="9"/>
+      <c r="AE31" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AF31" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF31" s="11"/>
       <c r="AG31" s="16"/>
-      <c r="AH31" s="8"/>
-      <c r="AI31" s="8"/>
-      <c r="AJ31" s="8" t="n">
+      <c r="AH31" s="9"/>
+      <c r="AI31" s="9"/>
+      <c r="AJ31" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AK31" s="8" t="n">
+      <c r="AK31" s="9" t="n">
         <v>26</v>
       </c>
-      <c r="AL31" s="8"/>
-      <c r="AM31" s="8" t="n">
+      <c r="AL31" s="9"/>
+      <c r="AM31" s="9" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="n">
+    <row r="32" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="n">
         <v>28</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="8" t="s">
+      <c r="C32" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8" t="n">
+      <c r="I32" s="9"/>
+      <c r="J32" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8" t="s">
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8" t="s">
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="R32" s="8" t="s">
+      <c r="R32" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S32" s="8" t="s">
+      <c r="S32" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8" t="s">
+      <c r="T32" s="9"/>
+      <c r="U32" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8" t="s">
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="Z32" s="8" t="s">
+      <c r="Z32" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="AA32" s="8"/>
-      <c r="AB32" s="8"/>
-      <c r="AC32" s="8"/>
-      <c r="AD32" s="8"/>
-      <c r="AE32" s="8" t="s">
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="9"/>
+      <c r="AD32" s="9"/>
+      <c r="AE32" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AF32" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="AF32" s="11"/>
       <c r="AG32" s="16"/>
-      <c r="AH32" s="8"/>
-      <c r="AI32" s="8"/>
-      <c r="AJ32" s="8" t="n">
+      <c r="AH32" s="9"/>
+      <c r="AI32" s="9"/>
+      <c r="AJ32" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AK32" s="8" t="n">
+      <c r="AK32" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="AL32" s="8"/>
-      <c r="AM32" s="8" t="n">
+      <c r="AL32" s="9"/>
+      <c r="AM32" s="9" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="n">
+    <row r="33" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="8" t="s">
+      <c r="C33" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8" t="n">
+      <c r="I33" s="9"/>
+      <c r="J33" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8" t="s">
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8" t="s">
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="R33" s="8" t="s">
+      <c r="R33" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8" t="s">
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8" t="s">
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="Z33" s="8" t="s">
+      <c r="Z33" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="AA33" s="8"/>
-      <c r="AB33" s="8"/>
-      <c r="AC33" s="8"/>
-      <c r="AD33" s="8"/>
-      <c r="AE33" s="8"/>
-      <c r="AF33" s="12" t="n">
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="11" t="n">
         <v>0.12</v>
       </c>
       <c r="AG33" s="16"/>
-      <c r="AH33" s="8"/>
-      <c r="AI33" s="8"/>
-      <c r="AJ33" s="8" t="n">
+      <c r="AH33" s="9"/>
+      <c r="AI33" s="9"/>
+      <c r="AJ33" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="AK33" s="8" t="n">
+      <c r="AK33" s="9" t="n">
         <v>28</v>
       </c>
-      <c r="AL33" s="8"/>
-      <c r="AM33" s="8" t="n">
+      <c r="AL33" s="9"/>
+      <c r="AM33" s="9" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="n">
+    <row r="34" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9" t="n">
         <v>34</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="8" t="s">
+      <c r="C34" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E34" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8" t="n">
+      <c r="I34" s="9"/>
+      <c r="J34" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8" t="s">
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="8"/>
-      <c r="AA34" s="8"/>
-      <c r="AB34" s="8"/>
-      <c r="AC34" s="8"/>
-      <c r="AD34" s="8"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="9"/>
+      <c r="AD34" s="9"/>
       <c r="AE34" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="AF34" s="12" t="n">
-        <v>0.0466667999999999</v>
-      </c>
-      <c r="AG34" s="8"/>
-      <c r="AH34" s="8"/>
-      <c r="AI34" s="8"/>
-      <c r="AJ34" s="8" t="n">
+      <c r="AF34" s="11" t="n">
+        <v>0.046667</v>
+      </c>
+      <c r="AG34" s="9"/>
+      <c r="AH34" s="9"/>
+      <c r="AI34" s="9"/>
+      <c r="AJ34" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="AK34" s="8" t="n">
+      <c r="AK34" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="AL34" s="13" t="s">
+      <c r="AL34" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="AM34" s="8" t="n">
+      <c r="AM34" s="9" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="n">
+    <row r="35" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="8" t="s">
+      <c r="C35" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8" t="n">
+      <c r="I35" s="9"/>
+      <c r="J35" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8" t="s">
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S35" s="8" t="s">
+      <c r="S35" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="8" t="s">
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="Y35" s="8" t="s">
+      <c r="Y35" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="Z35" s="8"/>
-      <c r="AA35" s="8"/>
-      <c r="AB35" s="8"/>
-      <c r="AC35" s="8"/>
-      <c r="AD35" s="8"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="9"/>
+      <c r="AC35" s="9"/>
+      <c r="AD35" s="9"/>
       <c r="AE35" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="AF35" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="8"/>
-      <c r="AH35" s="8"/>
-      <c r="AI35" s="8"/>
-      <c r="AJ35" s="8" t="n">
+      <c r="AF35" s="11"/>
+      <c r="AG35" s="9"/>
+      <c r="AH35" s="9"/>
+      <c r="AI35" s="9"/>
+      <c r="AJ35" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AK35" s="8" t="n">
+      <c r="AK35" s="9" t="n">
         <v>34</v>
       </c>
-      <c r="AL35" s="8"/>
-      <c r="AM35" s="8" t="n">
+      <c r="AL35" s="9"/>
+      <c r="AM35" s="9" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="n">
+    <row r="36" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="n">
         <v>36</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="8" t="s">
+      <c r="C36" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="E36" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F36" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8" t="n">
+      <c r="I36" s="9"/>
+      <c r="J36" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8" t="s">
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="N36" s="8" t="s">
+      <c r="N36" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8" t="s">
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S36" s="8" t="s">
+      <c r="S36" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8" t="s">
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="8"/>
-      <c r="AB36" s="8"/>
-      <c r="AC36" s="8"/>
-      <c r="AD36" s="8"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="9"/>
+      <c r="AC36" s="9"/>
+      <c r="AD36" s="9"/>
       <c r="AE36" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="AF36" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="8"/>
-      <c r="AH36" s="8"/>
-      <c r="AI36" s="8" t="s">
+      <c r="AF36" s="11"/>
+      <c r="AG36" s="9"/>
+      <c r="AH36" s="9"/>
+      <c r="AI36" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="AJ36" s="8" t="n">
+      <c r="AJ36" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AK36" s="8" t="n">
+      <c r="AK36" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="AL36" s="8"/>
-      <c r="AM36" s="8" t="n">
+      <c r="AL36" s="9"/>
+      <c r="AM36" s="9" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="n">
+    <row r="37" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="8" t="s">
+      <c r="C37" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="F37" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H37" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8" t="n">
+      <c r="I37" s="9"/>
+      <c r="J37" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8" t="s">
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="N37" s="8" t="s">
+      <c r="N37" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8" t="s">
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S37" s="8" t="s">
+      <c r="S37" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
-      <c r="X37" s="8" t="s">
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="Y37" s="8"/>
-      <c r="Z37" s="8"/>
-      <c r="AA37" s="8"/>
-      <c r="AB37" s="8"/>
-      <c r="AC37" s="8"/>
-      <c r="AD37" s="8"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="9"/>
+      <c r="AC37" s="9"/>
+      <c r="AD37" s="9"/>
       <c r="AE37" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="AF37" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="8"/>
-      <c r="AH37" s="8"/>
-      <c r="AI37" s="8" t="s">
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="9"/>
+      <c r="AH37" s="9"/>
+      <c r="AI37" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="AJ37" s="8" t="n">
+      <c r="AJ37" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="AK37" s="8" t="n">
+      <c r="AK37" s="9" t="n">
         <v>36</v>
       </c>
-      <c r="AL37" s="8"/>
-      <c r="AM37" s="8" t="n">
+      <c r="AL37" s="9"/>
+      <c r="AM37" s="9" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="n">
-        <v>39</v>
-      </c>
-      <c r="B38" s="8" t="s">
+    <row r="38" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9" t="n">
+        <v>39</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="8" t="s">
+      <c r="C38" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="F38" s="21" t="s">
+      <c r="F38" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="G38" s="21" t="s">
+      <c r="G38" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="I38" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8" t="s">
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="8"/>
-      <c r="AB38" s="8"/>
-      <c r="AC38" s="8"/>
-      <c r="AD38" s="8"/>
-      <c r="AE38" s="8"/>
-      <c r="AF38" s="12"/>
-      <c r="AG38" s="8"/>
-      <c r="AH38" s="8"/>
-      <c r="AI38" s="8"/>
-      <c r="AJ38" s="8"/>
-      <c r="AK38" s="8" t="n">
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="9"/>
+      <c r="AB38" s="9"/>
+      <c r="AC38" s="9"/>
+      <c r="AD38" s="9"/>
+      <c r="AE38" s="9"/>
+      <c r="AF38" s="11"/>
+      <c r="AG38" s="9"/>
+      <c r="AH38" s="9"/>
+      <c r="AI38" s="9"/>
+      <c r="AJ38" s="9"/>
+      <c r="AK38" s="9" t="n">
         <v>38</v>
       </c>
-      <c r="AL38" s="8" t="n">
+      <c r="AL38" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="AM38" s="8"/>
+      <c r="AM38" s="9"/>
     </row>
-    <row r="39" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="n">
+    <row r="39" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="8" t="s">
+      <c r="C39" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="F39" s="21" t="s">
+      <c r="F39" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="G39" s="21" t="s">
+      <c r="G39" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="I39" s="8" t="s">
+      <c r="I39" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="13" t="s">
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8" t="s">
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="8"/>
-      <c r="AA39" s="8"/>
-      <c r="AB39" s="8"/>
-      <c r="AC39" s="8"/>
-      <c r="AD39" s="8"/>
-      <c r="AE39" s="8"/>
-      <c r="AF39" s="12"/>
-      <c r="AG39" s="8"/>
-      <c r="AH39" s="8"/>
-      <c r="AI39" s="8"/>
-      <c r="AJ39" s="8"/>
-      <c r="AK39" s="8" t="n">
-        <v>39</v>
-      </c>
-      <c r="AL39" s="8" t="n">
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="9"/>
+      <c r="AB39" s="9"/>
+      <c r="AC39" s="9"/>
+      <c r="AD39" s="9"/>
+      <c r="AE39" s="9"/>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="9"/>
+      <c r="AH39" s="9"/>
+      <c r="AI39" s="9"/>
+      <c r="AJ39" s="9"/>
+      <c r="AK39" s="9" t="n">
+        <v>39</v>
+      </c>
+      <c r="AL39" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="AM39" s="8"/>
+      <c r="AM39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="n">
+    <row r="40" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9" t="n">
         <v>41</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="8" t="s">
+      <c r="C40" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="I40" s="8" t="s">
+      <c r="I40" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="13" t="s">
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8" t="s">
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="T40" s="8"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="8"/>
-      <c r="X40" s="8"/>
-      <c r="Y40" s="8"/>
-      <c r="Z40" s="8"/>
-      <c r="AA40" s="8"/>
-      <c r="AB40" s="8"/>
-      <c r="AC40" s="8"/>
-      <c r="AD40" s="8"/>
-      <c r="AE40" s="8"/>
-      <c r="AF40" s="12"/>
-      <c r="AG40" s="8"/>
-      <c r="AH40" s="8"/>
-      <c r="AI40" s="8"/>
-      <c r="AJ40" s="8"/>
-      <c r="AK40" s="8" t="n">
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="9"/>
+      <c r="AC40" s="9"/>
+      <c r="AD40" s="9"/>
+      <c r="AE40" s="9"/>
+      <c r="AF40" s="11"/>
+      <c r="AG40" s="9"/>
+      <c r="AH40" s="9"/>
+      <c r="AI40" s="9"/>
+      <c r="AJ40" s="9"/>
+      <c r="AK40" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="AL40" s="8" t="n">
+      <c r="AL40" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="AM40" s="8"/>
+      <c r="AM40" s="9"/>
     </row>
-    <row r="41" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="n">
+    <row r="41" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9" t="n">
         <v>42</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="8" t="s">
+      <c r="C41" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="H41" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="I41" s="8" t="s">
+      <c r="I41" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="13" t="s">
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8" t="s">
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="8"/>
-      <c r="X41" s="8"/>
-      <c r="Y41" s="8"/>
-      <c r="Z41" s="8"/>
-      <c r="AA41" s="8"/>
-      <c r="AB41" s="8"/>
-      <c r="AC41" s="8"/>
-      <c r="AD41" s="8"/>
-      <c r="AE41" s="8"/>
-      <c r="AF41" s="12"/>
-      <c r="AG41" s="8"/>
-      <c r="AH41" s="8"/>
-      <c r="AI41" s="8"/>
-      <c r="AJ41" s="8"/>
-      <c r="AK41" s="8" t="n">
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="9"/>
+      <c r="AA41" s="9"/>
+      <c r="AB41" s="9"/>
+      <c r="AC41" s="9"/>
+      <c r="AD41" s="9"/>
+      <c r="AE41" s="9"/>
+      <c r="AF41" s="11"/>
+      <c r="AG41" s="9"/>
+      <c r="AH41" s="9"/>
+      <c r="AI41" s="9"/>
+      <c r="AJ41" s="9"/>
+      <c r="AK41" s="9" t="n">
         <v>41</v>
       </c>
-      <c r="AL41" s="8" t="n">
+      <c r="AL41" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="AM41" s="8"/>
+      <c r="AM41" s="9"/>
     </row>
-    <row r="42" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="n">
+    <row r="42" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="n">
         <v>43</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="8" t="s">
+      <c r="C42" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E42" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="G42" s="21" t="s">
+      <c r="G42" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="I42" s="8" t="s">
+      <c r="I42" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8" t="s">
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8" t="s">
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
-      <c r="Y42" s="8"/>
-      <c r="Z42" s="8"/>
-      <c r="AA42" s="8"/>
-      <c r="AB42" s="8"/>
-      <c r="AC42" s="8"/>
-      <c r="AD42" s="8"/>
-      <c r="AE42" s="8"/>
-      <c r="AF42" s="12"/>
-      <c r="AG42" s="8"/>
-      <c r="AH42" s="8"/>
-      <c r="AI42" s="8"/>
-      <c r="AJ42" s="8"/>
-      <c r="AK42" s="8" t="n">
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9"/>
+      <c r="AA42" s="9"/>
+      <c r="AB42" s="9"/>
+      <c r="AC42" s="9"/>
+      <c r="AD42" s="9"/>
+      <c r="AE42" s="9"/>
+      <c r="AF42" s="11"/>
+      <c r="AG42" s="9"/>
+      <c r="AH42" s="9"/>
+      <c r="AI42" s="9"/>
+      <c r="AJ42" s="9"/>
+      <c r="AK42" s="9" t="n">
         <v>42</v>
       </c>
-      <c r="AL42" s="8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM42" s="8"/>
+      <c r="AL42" s="19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM42" s="9"/>
     </row>
-    <row r="43" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="n">
+    <row r="43" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9" t="n">
         <v>45</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="8" t="s">
+      <c r="C43" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="F43" s="21" t="s">
+      <c r="F43" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="G43" s="21" t="s">
+      <c r="G43" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="H43" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="I43" s="8" t="s">
+      <c r="I43" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="13" t="s">
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8" t="s">
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="8"/>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="8"/>
-      <c r="AA43" s="8"/>
-      <c r="AB43" s="8"/>
-      <c r="AC43" s="8"/>
-      <c r="AD43" s="8"/>
-      <c r="AE43" s="8"/>
-      <c r="AF43" s="12"/>
-      <c r="AG43" s="8"/>
-      <c r="AH43" s="8"/>
-      <c r="AI43" s="8"/>
-      <c r="AJ43" s="8"/>
-      <c r="AK43" s="8" t="n">
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
+      <c r="AA43" s="9"/>
+      <c r="AB43" s="9"/>
+      <c r="AC43" s="9"/>
+      <c r="AD43" s="9"/>
+      <c r="AE43" s="9"/>
+      <c r="AF43" s="11"/>
+      <c r="AG43" s="9"/>
+      <c r="AH43" s="9"/>
+      <c r="AI43" s="9"/>
+      <c r="AJ43" s="9"/>
+      <c r="AK43" s="9" t="n">
         <v>44</v>
       </c>
-      <c r="AL43" s="13" t="s">
+      <c r="AL43" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="AM43" s="8"/>
+      <c r="AM43" s="9"/>
     </row>
-    <row r="44" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8" t="n">
+    <row r="44" customFormat="false" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9" t="n">
         <v>46</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="8" t="s">
+      <c r="C44" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="F44" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="G44" s="21" t="s">
+      <c r="G44" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="H44" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="I44" s="8" t="s">
+      <c r="I44" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="13" t="s">
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8" t="s">
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="T44" s="8"/>
-      <c r="U44" s="8"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="8"/>
-      <c r="X44" s="8"/>
-      <c r="Y44" s="8"/>
-      <c r="Z44" s="8"/>
-      <c r="AA44" s="8"/>
-      <c r="AB44" s="8"/>
-      <c r="AC44" s="8"/>
-      <c r="AD44" s="8"/>
-      <c r="AE44" s="8"/>
-      <c r="AF44" s="12"/>
-      <c r="AG44" s="8"/>
-      <c r="AH44" s="8"/>
-      <c r="AI44" s="8"/>
-      <c r="AJ44" s="8"/>
-      <c r="AK44" s="8" t="n">
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9"/>
+      <c r="AA44" s="9"/>
+      <c r="AB44" s="9"/>
+      <c r="AC44" s="9"/>
+      <c r="AD44" s="9"/>
+      <c r="AE44" s="9"/>
+      <c r="AF44" s="11"/>
+      <c r="AG44" s="9"/>
+      <c r="AH44" s="9"/>
+      <c r="AI44" s="9"/>
+      <c r="AJ44" s="9"/>
+      <c r="AK44" s="9" t="n">
         <v>45</v>
       </c>
-      <c r="AL44" s="13" t="s">
+      <c r="AL44" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="AM44" s="8"/>
+      <c r="AM44" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC44"/>
+  <autoFilter ref="AE1:AM44"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - CAP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="HoReCa Bar Tavern_Night Club" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,6 +15,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$ast$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$AE$1:$AM$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$AE$1:$AM$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$AE$1:$AM$44</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -735,8 +736,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF579D1C"/>
-        <bgColor rgb="FF808000"/>
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -937,7 +938,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FF66FFFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -950,7 +951,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF579D1C"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -978,51 +979,51 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI7" activeCellId="0" sqref="AI7"/>
+      <selection pane="bottomRight" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.98139534883721"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.8093023255814"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.2139534883721"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.153488372093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="52.4232558139535"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="56.8558139534884"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="31.6279069767442"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="7.87441860465116"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.1674418604651"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="231.972093023256"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="142.260465116279"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.8139534883721"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="34.9488372093023"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.706976744186"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="15.3813953488372"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="9.10697674418605"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.7813953488372"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.0279069767442"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="17.353488372093"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.7674418604651"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="25.7209302325581"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="69.8976744186047"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="20.0604651162791"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.8418604651163"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="26.4604651162791"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="18.3348837209302"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="14.5209302325581"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="14.4"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="14.8883720930233"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="33.7209302325581"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.98139534883721"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.2139534883721"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="1021" min="39" style="1" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="3" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.22790697674419"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.7953488372093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.5209302325581"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="53.9023255813954"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="58.5767441860465"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="32.4883720930233"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.4883720930233"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.4139534883721"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="69.6604651162791"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="76.7162790697674"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.4279069767442"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="16"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="36.0558139534884"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="19.3209302325581"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="15.753488372093"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.6418604651163"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="17.8418604651163"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="23.3813953488372"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="26.4604651162791"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="71.9906976744186"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="20.553488372093"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="26.5813953488372"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="27.1953488372093"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="18.8279069767442"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="14.7674418604651"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="34.7023255813953"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="9.22790697674419"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="1021" min="39" style="1" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="3" width="11.0744186046512"/>
   </cols>
   <sheetData>
     <row r="1" s="8" customFormat="true" ht="23.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - CAP.xlsx
@@ -18,6 +18,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AN$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AN$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AN$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AN$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AN$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -351,14 +353,13 @@
     <t xml:space="preserve">Рич 0.2л стекло остальные</t>
   </si>
   <si>
-    <t xml:space="preserve">number of atomic KPI Passed</t>
+    <t xml:space="preserve">number of sub atomic KPI Passed</t>
   </si>
   <si>
     <t xml:space="preserve">16
 17
 18
-19
-</t>
+19</t>
   </si>
   <si>
     <t xml:space="preserve">Rich - Pineapple - 0.2L Glass</t>
@@ -437,6 +438,9 @@
   </si>
   <si>
     <t xml:space="preserve">Активация Импульсной зоны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of atomic KPI Passed</t>
   </si>
   <si>
     <t xml:space="preserve">Bar Activation</t>
@@ -529,9 +533,6 @@
   </si>
   <si>
     <t xml:space="preserve">Другие активации: Кола+ЕДА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of sub atomic KPI Passed</t>
   </si>
   <si>
     <t xml:space="preserve">902
@@ -716,7 +717,7 @@
     <numFmt numFmtId="169" formatCode="0%"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -767,12 +768,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -783,8 +778,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF99FF"/>
-        <bgColor rgb="FFCC99FF"/>
+        <fgColor rgb="FFCCFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -845,7 +840,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -926,10 +921,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="7" fillId="3" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -946,7 +937,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -970,7 +961,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFCCFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -1002,7 +993,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99FF"/>
+      <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
@@ -1040,51 +1031,51 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.5209302325581"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="41.2279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.2744186046512"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="60.6697674418605"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.9627906976744"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="36.5488372093023"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="21.4139534883721"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="17.4744186046512"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="77.7767441860465"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="165.274418604651"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="25.7209302325581"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="20.9209302325581"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="40.2418604651163"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="30.6418604651163"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="17.6"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="10.3395348837209"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="28.4279069767442"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.6418604651163"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="29.2883720930233"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="29.5348837209302"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="80.9767441860465"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="26.2139534883721"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="32.6093023255814"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="33.3488372093023"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="8.98139534883721"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="21.0418604651163"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="17.4744186046512"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="16.246511627907"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="38.8883720930233"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="10.2139534883721"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="2" width="13.7813953488372"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="2" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="1" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.4139534883721"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="43.6883720930233"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.0139534883721"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.9813953488372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="64.2372093023256"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="69.8976744186047"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="38.6418604651163"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="22.6418604651163"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="19.2"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="82.5767441860465"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="175.609302325581"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="27.1953488372093"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="22.0279069767442"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="42.7023255813953"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="32.3674418604651"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="18.5813953488372"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="20.1813953488372"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="29.9023255813953"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="23.8744186046512"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="30.8883720930233"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="31.2558139534884"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="85.8976744186047"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="27.8139534883721"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="34.5813953488372"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="35.3209302325581"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="9.47441860465116"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="22.153488372093"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="17.2279069767442"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="17.9674418604651"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="41.2279069767442"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="2" width="14.5209302325581"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="2" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="1" width="12.9209302325581"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3222,7 +3213,7 @@
         <v>127</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8" t="n">
@@ -3249,7 +3240,7 @@
         <v>123</v>
       </c>
       <c r="AA28" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AB28" s="8"/>
       <c r="AC28" s="8"/>
@@ -3294,10 +3285,10 @@
         <v>125</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>61</v>
@@ -3309,13 +3300,13 @@
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
@@ -3324,11 +3315,11 @@
         <v>62</v>
       </c>
       <c r="T29" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="U29" s="8"/>
       <c r="V29" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W29" s="8"/>
       <c r="X29" s="8"/>
@@ -3337,7 +3328,7 @@
         <v>123</v>
       </c>
       <c r="AA29" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
@@ -3378,13 +3369,13 @@
         <v>125</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8" t="n">
@@ -3411,7 +3402,7 @@
         <v>123</v>
       </c>
       <c r="AA30" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
@@ -3433,7 +3424,7 @@
         <v>25</v>
       </c>
       <c r="AM30" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AN30" s="8" t="n">
         <v>400</v>
@@ -3456,10 +3447,10 @@
         <v>125</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>61</v>
@@ -3471,13 +3462,13 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
@@ -3486,7 +3477,7 @@
         <v>62</v>
       </c>
       <c r="T31" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
@@ -3497,7 +3488,7 @@
         <v>123</v>
       </c>
       <c r="AA31" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
@@ -3538,10 +3529,10 @@
         <v>125</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>61</v>
@@ -3553,16 +3544,16 @@
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="S32" s="8" t="s">
         <v>62</v>
@@ -3572,7 +3563,7 @@
       </c>
       <c r="U32" s="8"/>
       <c r="V32" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W32" s="8"/>
       <c r="X32" s="8"/>
@@ -3581,7 +3572,7 @@
         <v>123</v>
       </c>
       <c r="AA32" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AB32" s="8"/>
       <c r="AC32" s="8"/>
@@ -3616,19 +3607,19 @@
         <v>40</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F33" s="20" t="s">
         <v>148</v>
       </c>
+      <c r="F33" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="G33" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8" t="n">
@@ -3660,7 +3651,7 @@
       <c r="AF33" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG33" s="21" t="n">
+      <c r="AG33" s="20" t="n">
         <v>0.12</v>
       </c>
       <c r="AH33" s="8"/>
@@ -3672,8 +3663,8 @@
       <c r="AL33" s="8" t="n">
         <v>29</v>
       </c>
-      <c r="AM33" s="22" t="s">
-        <v>150</v>
+      <c r="AM33" s="21" t="s">
+        <v>151</v>
       </c>
       <c r="AN33" s="8" t="n">
         <v>400</v>
@@ -3690,72 +3681,72 @@
         <v>40</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="I34" s="23"/>
-      <c r="J34" s="24" t="n">
+      <c r="I34" s="22"/>
+      <c r="J34" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
+        <v>154</v>
+      </c>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
       <c r="Q34" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="R34" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="R34" s="8" t="s">
-        <v>153</v>
       </c>
       <c r="S34" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="T34" s="23" t="s">
+      <c r="T34" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="U34" s="25"/>
-      <c r="V34" s="23"/>
-      <c r="W34" s="23"/>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="23"/>
-      <c r="Z34" s="23"/>
+      <c r="U34" s="24"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="22"/>
       <c r="AA34" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB34" s="23"/>
-      <c r="AC34" s="23"/>
-      <c r="AD34" s="23"/>
+        <v>156</v>
+      </c>
+      <c r="AB34" s="22"/>
+      <c r="AC34" s="22"/>
+      <c r="AD34" s="22"/>
       <c r="AE34" s="8"/>
       <c r="AF34" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG34" s="23"/>
-      <c r="AH34" s="23"/>
-      <c r="AI34" s="23"/>
-      <c r="AJ34" s="23"/>
-      <c r="AK34" s="24" t="n">
+      <c r="AG34" s="22"/>
+      <c r="AH34" s="22"/>
+      <c r="AI34" s="22"/>
+      <c r="AJ34" s="22"/>
+      <c r="AK34" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="AL34" s="24" t="n">
+      <c r="AL34" s="23" t="n">
         <v>900</v>
       </c>
-      <c r="AM34" s="24"/>
-      <c r="AN34" s="24" t="n">
+      <c r="AM34" s="23"/>
+      <c r="AN34" s="23" t="n">
         <v>29</v>
       </c>
     </row>
@@ -3770,66 +3761,66 @@
         <v>40</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>156</v>
+        <v>148</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="I35" s="23"/>
-      <c r="J35" s="24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I35" s="22"/>
+      <c r="J35" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
       <c r="S35" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="23"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="22"/>
       <c r="AA35" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB35" s="23"/>
-      <c r="AC35" s="23"/>
-      <c r="AD35" s="23"/>
+        <v>156</v>
+      </c>
+      <c r="AB35" s="22"/>
+      <c r="AC35" s="22"/>
+      <c r="AD35" s="22"/>
       <c r="AE35" s="8"/>
       <c r="AF35" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG35" s="23"/>
-      <c r="AH35" s="23"/>
-      <c r="AI35" s="23"/>
-      <c r="AJ35" s="23"/>
-      <c r="AK35" s="24" t="n">
+      <c r="AG35" s="22"/>
+      <c r="AH35" s="22"/>
+      <c r="AI35" s="22"/>
+      <c r="AJ35" s="22"/>
+      <c r="AK35" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="AL35" s="24" t="n">
+      <c r="AL35" s="23" t="n">
         <v>901</v>
       </c>
-      <c r="AM35" s="22" t="s">
+      <c r="AM35" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="AN35" s="24" t="n">
+      <c r="AN35" s="23" t="n">
         <v>29</v>
       </c>
     </row>
@@ -3844,12 +3835,12 @@
         <v>40</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F36" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>160</v>
       </c>
       <c r="G36" s="8" t="s">
@@ -3858,58 +3849,58 @@
       <c r="H36" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="I36" s="23"/>
-      <c r="J36" s="24" t="n">
+      <c r="I36" s="22"/>
+      <c r="J36" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
       <c r="M36" s="8"/>
-      <c r="N36" s="23" t="s">
+      <c r="N36" s="22" t="s">
         <v>162</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22" t="s">
         <v>162</v>
       </c>
       <c r="S36" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="T36" s="23" t="s">
+      <c r="T36" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="U36" s="23"/>
-      <c r="V36" s="23"/>
-      <c r="W36" s="23"/>
-      <c r="X36" s="23"/>
-      <c r="Y36" s="23"/>
-      <c r="Z36" s="23"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22"/>
       <c r="AA36" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB36" s="23"/>
-      <c r="AC36" s="23"/>
-      <c r="AD36" s="23"/>
+        <v>156</v>
+      </c>
+      <c r="AB36" s="22"/>
+      <c r="AC36" s="22"/>
+      <c r="AD36" s="22"/>
       <c r="AE36" s="8"/>
       <c r="AF36" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG36" s="23"/>
-      <c r="AH36" s="23"/>
-      <c r="AI36" s="23"/>
-      <c r="AJ36" s="23"/>
-      <c r="AK36" s="24" t="n">
+      <c r="AG36" s="22"/>
+      <c r="AH36" s="22"/>
+      <c r="AI36" s="22"/>
+      <c r="AJ36" s="22"/>
+      <c r="AK36" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="AL36" s="24" t="n">
+      <c r="AL36" s="23" t="n">
         <v>902</v>
       </c>
-      <c r="AM36" s="24"/>
-      <c r="AN36" s="24" t="n">
+      <c r="AM36" s="23"/>
+      <c r="AN36" s="23" t="n">
         <v>901</v>
       </c>
     </row>
@@ -3924,12 +3915,12 @@
         <v>40</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F37" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>163</v>
       </c>
       <c r="G37" s="8" t="s">
@@ -3938,12 +3929,12 @@
       <c r="H37" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="I37" s="23"/>
-      <c r="J37" s="24" t="n">
+      <c r="I37" s="22"/>
+      <c r="J37" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
       <c r="M37" s="8" t="s">
         <v>165</v>
       </c>
@@ -3951,43 +3942,43 @@
         <v>5000034</v>
       </c>
       <c r="O37" s="8"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
       <c r="S37" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="T37" s="23" t="s">
+      <c r="T37" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="U37" s="23"/>
-      <c r="V37" s="23"/>
-      <c r="W37" s="23"/>
-      <c r="X37" s="23"/>
-      <c r="Y37" s="23"/>
-      <c r="Z37" s="23"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="22"/>
       <c r="AA37" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB37" s="23"/>
-      <c r="AC37" s="23"/>
-      <c r="AD37" s="23"/>
+        <v>156</v>
+      </c>
+      <c r="AB37" s="22"/>
+      <c r="AC37" s="22"/>
+      <c r="AD37" s="22"/>
       <c r="AE37" s="8"/>
       <c r="AF37" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG37" s="23"/>
-      <c r="AH37" s="23"/>
-      <c r="AI37" s="23"/>
-      <c r="AJ37" s="23"/>
-      <c r="AK37" s="24" t="n">
+      <c r="AG37" s="22"/>
+      <c r="AH37" s="22"/>
+      <c r="AI37" s="22"/>
+      <c r="AJ37" s="22"/>
+      <c r="AK37" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="AL37" s="24" t="n">
+      <c r="AL37" s="23" t="n">
         <v>903</v>
       </c>
-      <c r="AM37" s="24"/>
-      <c r="AN37" s="24" t="n">
+      <c r="AM37" s="23"/>
+      <c r="AN37" s="23" t="n">
         <v>901</v>
       </c>
     </row>
@@ -4002,19 +3993,19 @@
         <v>40</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E38" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E38" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="25" t="s">
         <v>167</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>168</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8" t="n">
@@ -4076,12 +4067,12 @@
         <v>40</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E39" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E39" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="25" t="s">
         <v>171</v>
       </c>
       <c r="G39" s="8" t="s">
@@ -4152,12 +4143,12 @@
         <v>40</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E40" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="25" t="s">
         <v>176</v>
       </c>
       <c r="G40" s="8" t="s">
@@ -4173,7 +4164,7 @@
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N40" s="8" t="s">
         <v>114</v>
@@ -4232,12 +4223,12 @@
         <v>40</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E41" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F41" s="26" t="s">
+      <c r="F41" s="25" t="s">
         <v>181</v>
       </c>
       <c r="G41" s="8" t="s">
@@ -4253,7 +4244,7 @@
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
       <c r="M41" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N41" s="8" t="s">
         <v>114</v>
@@ -4314,13 +4305,13 @@
       <c r="D42" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F42" s="26" t="s">
+      <c r="F42" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="G42" s="26" t="s">
+      <c r="G42" s="25" t="s">
         <v>187</v>
       </c>
       <c r="H42" s="8" t="s">
@@ -4380,13 +4371,13 @@
       <c r="D43" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E43" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="F43" s="26" t="s">
+      <c r="F43" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="G43" s="26" t="s">
+      <c r="G43" s="25" t="s">
         <v>192</v>
       </c>
       <c r="H43" s="8" t="s">
@@ -4584,13 +4575,13 @@
       <c r="D46" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E46" s="26" t="s">
+      <c r="E46" s="25" t="s">
         <v>200</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="G46" s="26" t="s">
+      <c r="G46" s="25" t="s">
         <v>202</v>
       </c>
       <c r="H46" s="8" t="s">
@@ -4655,10 +4646,10 @@
       <c r="E47" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F47" s="26" t="s">
+      <c r="F47" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="G47" s="26" t="s">
+      <c r="G47" s="25" t="s">
         <v>205</v>
       </c>
       <c r="H47" s="8" t="s">
@@ -4723,10 +4714,10 @@
       <c r="E48" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F48" s="26" t="s">
+      <c r="F48" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="G48" s="26" t="s">
+      <c r="G48" s="25" t="s">
         <v>205</v>
       </c>
       <c r="H48" s="8" t="s">

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - CAP.xlsx
@@ -11,15 +11,23 @@
     <sheet name="HoReCa Bar Tavern_Night Club" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AN$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AN$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AN$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AN$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AN$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AN$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AN$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AN$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AN$48</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -31,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="208">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -274,13 +282,10 @@
     <t xml:space="preserve">Швеппс Шпритц - 0.25л стекло</t>
   </si>
   <si>
-    <t xml:space="preserve">New SKU 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новый вкус 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes Royal - 0.25L Glass</t>
+    <t xml:space="preserve">Schweppes Ginger Spritz - 0.25L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Имбирь - 0.25л стекло</t>
   </si>
   <si>
     <t xml:space="preserve">Sprite - 0.25L Glass/Fanta Orange - 0.25L Glass</t>
@@ -398,12 +403,12 @@
     <t xml:space="preserve">Берн/Монстер 0.33л/0.5л любой</t>
   </si>
   <si>
+    <t xml:space="preserve">Burn, Monster</t>
+  </si>
+  <si>
     <t xml:space="preserve">TCCC</t>
   </si>
   <si>
-    <t xml:space="preserve">Burn, Monster</t>
-  </si>
-  <si>
     <t xml:space="preserve">BRAND</t>
   </si>
   <si>
@@ -458,10 +463,10 @@
     <t xml:space="preserve">SSD, Water, Juices</t>
   </si>
   <si>
-    <t xml:space="preserve">MAN in CAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glass</t>
+    <t xml:space="preserve">CAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glass, GLASS</t>
   </si>
   <si>
     <t xml:space="preserve">Destination Activation</t>
@@ -484,9 +489,6 @@
   </si>
   <si>
     <t xml:space="preserve">IC Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAT</t>
   </si>
   <si>
     <t xml:space="preserve">Destination: Coca-Cola/Bon Aqua NRGB</t>
@@ -769,7 +771,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -778,8 +780,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
@@ -840,17 +848,17 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -901,19 +909,27 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="170" fontId="7" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -921,7 +937,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="3" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -935,10 +951,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -961,7 +973,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFCCFF00"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -979,7 +991,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1005,7 +1017,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -1026,7 +1038,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN48"/>
+  <dimension ref="A1:AM48"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1036,49 +1048,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.4139534883721"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="43.6883720930233"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.0139534883721"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="64.2372093023256"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="69.8976744186047"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="38.6418604651163"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="22.6418604651163"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="19.2"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="82.5767441860465"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="175.609302325581"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="27.1953488372093"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="22.0279069767442"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="42.7023255813953"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="32.3674418604651"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="18.5813953488372"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="20.1813953488372"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="29.9023255813953"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="23.8744186046512"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="30.8883720930233"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="31.2558139534884"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="85.8976744186047"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="27.8139534883721"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="34.5813953488372"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="35.3209302325581"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="9.47441860465116"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="22.153488372093"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="17.2279069767442"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="41.2279069767442"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="2" width="14.5209302325581"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="2" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="1" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.2418604651163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6837209302326"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.7627906976744"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.5023255813953"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.7767441860465"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="50.8651162790698"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="55.2046511627907"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="30.9627906976744"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.1162790697674"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.3302325581395"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="14.8558139534884"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.4"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="225.120930232558"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="138.083720930233"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.7348837209302"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="17.753488372093"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="25.893023255814"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="34.0372093023256"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="20.8325581395349"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="15.0372093023256"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="8.88372093023256"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="15.9395348837209"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="23.906976744186"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="19.3767441860465"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.6279069767442"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.0883720930233"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="67.8744186046512"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="22.093023255814"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="27.706976744186"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="28.246511627907"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="17.9348837209302"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="14.8558139534884"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.953488372093"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="14.4976744186047"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="32.7674418604651"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="8.70232558139535"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="9.96744186046512"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="12.1441860465116"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="2" width="10.5116279069767"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="10.5023255813953"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1169,36 +1181,35 @@
       <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="AG1" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="AH1" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="AJ1" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="AK1" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="n">
         <v>41</v>
       </c>
@@ -1244,23 +1255,22 @@
       <c r="AC2" s="8"/>
       <c r="AD2" s="8"/>
       <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="8"/>
       <c r="AH2" s="8"/>
       <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
+      <c r="AJ2" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AK2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="11" t="n">
         <v>300</v>
       </c>
-      <c r="AM2" s="12" t="s">
+      <c r="AL2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AN2" s="8"/>
+      <c r="AM2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="n">
         <v>42</v>
       </c>
@@ -1306,23 +1316,22 @@
       <c r="AC3" s="8"/>
       <c r="AD3" s="8"/>
       <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="8"/>
       <c r="AH3" s="8"/>
       <c r="AI3" s="8"/>
-      <c r="AJ3" s="8"/>
+      <c r="AJ3" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AK3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="11" t="n">
         <v>310</v>
       </c>
-      <c r="AM3" s="12" t="s">
+      <c r="AL3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AN3" s="11"/>
+      <c r="AM3" s="11"/>
     </row>
-    <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="n">
         <v>43</v>
       </c>
@@ -1368,25 +1377,24 @@
       <c r="AC4" s="8"/>
       <c r="AD4" s="8"/>
       <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="8"/>
       <c r="AH4" s="8"/>
       <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
+      <c r="AJ4" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AK4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="11" t="n">
         <v>312</v>
       </c>
-      <c r="AM4" s="8" t="n">
+      <c r="AL4" s="8" t="n">
         <v>33</v>
       </c>
-      <c r="AN4" s="11" t="n">
+      <c r="AM4" s="11" t="n">
         <v>310</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="n">
         <v>44</v>
       </c>
@@ -1432,23 +1440,22 @@
       <c r="AC5" s="8"/>
       <c r="AD5" s="8"/>
       <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="8"/>
       <c r="AH5" s="8"/>
       <c r="AI5" s="8"/>
-      <c r="AJ5" s="8"/>
+      <c r="AJ5" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AK5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="11" t="n">
         <v>400</v>
       </c>
-      <c r="AM5" s="12" t="s">
+      <c r="AL5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AN5" s="11"/>
+      <c r="AM5" s="11"/>
     </row>
-    <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="n">
         <v>1</v>
       </c>
@@ -1495,28 +1502,27 @@
       <c r="AB6" s="8"/>
       <c r="AC6" s="8"/>
       <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8" t="s">
+      <c r="AE6" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AG6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="8"/>
       <c r="AH6" s="8"/>
       <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
+      <c r="AJ6" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="AK6" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="AM6" s="13" t="s">
+      <c r="AL6" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN6" s="8" t="n">
+      <c r="AM6" s="8" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="n">
         <v>2</v>
       </c>
@@ -1577,28 +1583,27 @@
       </c>
       <c r="AC7" s="8"/>
       <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8" t="s">
+      <c r="AE7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG7" s="10" t="n">
+      <c r="AF7" s="10" t="n">
         <v>0.050031</v>
       </c>
+      <c r="AG7" s="8"/>
       <c r="AH7" s="8"/>
       <c r="AI7" s="8"/>
-      <c r="AJ7" s="8"/>
+      <c r="AJ7" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="AK7" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL7" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="AM7" s="8"/>
-      <c r="AN7" s="8" t="n">
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="n">
         <v>3</v>
       </c>
@@ -1659,28 +1664,27 @@
       </c>
       <c r="AC8" s="8"/>
       <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8" t="s">
+      <c r="AE8" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG8" s="10" t="n">
+      <c r="AF8" s="10" t="n">
         <v>0.050004</v>
       </c>
+      <c r="AG8" s="8"/>
       <c r="AH8" s="8"/>
       <c r="AI8" s="8"/>
-      <c r="AJ8" s="8"/>
+      <c r="AJ8" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="AK8" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="AL8" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM8" s="8"/>
-      <c r="AN8" s="8" t="n">
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="n">
         <v>4</v>
       </c>
@@ -1741,28 +1745,27 @@
       </c>
       <c r="AC9" s="8"/>
       <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8" t="s">
+      <c r="AE9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG9" s="10" t="n">
+      <c r="AF9" s="10" t="n">
         <v>0.033993</v>
       </c>
+      <c r="AG9" s="8"/>
       <c r="AH9" s="8"/>
       <c r="AI9" s="8"/>
-      <c r="AJ9" s="8"/>
+      <c r="AJ9" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="AK9" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL9" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="AM9" s="8"/>
-      <c r="AN9" s="8" t="n">
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="n">
         <v>5</v>
       </c>
@@ -1823,28 +1826,27 @@
       </c>
       <c r="AC10" s="8"/>
       <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8" t="s">
+      <c r="AE10" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG10" s="10" t="n">
+      <c r="AF10" s="10" t="n">
         <v>0.033993</v>
       </c>
+      <c r="AG10" s="8"/>
       <c r="AH10" s="8"/>
       <c r="AI10" s="8"/>
-      <c r="AJ10" s="8"/>
+      <c r="AJ10" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="AK10" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL10" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="AM10" s="8"/>
-      <c r="AN10" s="8" t="n">
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="n">
         <v>6</v>
       </c>
@@ -1905,28 +1907,27 @@
       </c>
       <c r="AC11" s="8"/>
       <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8" t="s">
+      <c r="AE11" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG11" s="10" t="n">
+      <c r="AF11" s="10" t="n">
         <v>0.033993</v>
       </c>
+      <c r="AG11" s="8"/>
       <c r="AH11" s="8"/>
       <c r="AI11" s="8"/>
-      <c r="AJ11" s="8"/>
+      <c r="AJ11" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="AK11" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL11" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="AM11" s="8"/>
-      <c r="AN11" s="8" t="n">
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="n">
         <v>7</v>
       </c>
@@ -1942,10 +1943,10 @@
       <c r="E12" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="15" t="s">
         <v>76</v>
       </c>
       <c r="H12" s="8" t="s">
@@ -1957,11 +1958,11 @@
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="N12" s="11" t="n">
-        <v>1111111</v>
+      <c r="M12" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" s="16" t="n">
+        <v>42357285</v>
       </c>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
@@ -1987,28 +1988,27 @@
       </c>
       <c r="AC12" s="8"/>
       <c r="AD12" s="8"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="8" t="s">
+      <c r="AE12" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG12" s="10" t="n">
+      <c r="AF12" s="10" t="n">
         <v>0.033993</v>
       </c>
+      <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
       <c r="AI12" s="8"/>
-      <c r="AJ12" s="8"/>
+      <c r="AJ12" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="AK12" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL12" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="AM12" s="8"/>
-      <c r="AN12" s="8" t="n">
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="n">
         <v>8</v>
       </c>
@@ -2025,10 +2025,10 @@
         <v>53</v>
       </c>
       <c r="F13" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>78</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>79</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>61</v>
@@ -2040,10 +2040,10 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="N13" s="14" t="s">
         <v>80</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>81</v>
       </c>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
@@ -2069,28 +2069,27 @@
       </c>
       <c r="AC13" s="8"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8" t="s">
+      <c r="AE13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG13" s="10" t="n">
+      <c r="AF13" s="10" t="n">
         <v>0.033993</v>
       </c>
+      <c r="AG13" s="8"/>
       <c r="AH13" s="8"/>
       <c r="AI13" s="8"/>
-      <c r="AJ13" s="8"/>
+      <c r="AJ13" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="AK13" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL13" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="AM13" s="8"/>
-      <c r="AN13" s="8" t="n">
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="n">
         <v>9</v>
       </c>
@@ -2104,13 +2103,13 @@
         <v>41</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>56</v>
@@ -2139,28 +2138,27 @@
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
       <c r="AD14" s="8"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="8" t="s">
+      <c r="AE14" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AG14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="8"/>
       <c r="AH14" s="8"/>
       <c r="AI14" s="8"/>
-      <c r="AJ14" s="8"/>
+      <c r="AJ14" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="AK14" s="8" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AL14" s="8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM14" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AN14" s="8" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="n">
         <v>10</v>
       </c>
@@ -2174,13 +2172,13 @@
         <v>41</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F15" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>85</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>86</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>61</v>
@@ -2192,10 +2190,10 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
@@ -2221,28 +2219,27 @@
       </c>
       <c r="AC15" s="8"/>
       <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="8" t="s">
+      <c r="AE15" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG15" s="10" t="n">
+      <c r="AF15" s="10" t="n">
         <v>0.050002</v>
       </c>
-      <c r="AH15" s="15"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="8"/>
       <c r="AI15" s="8"/>
-      <c r="AJ15" s="8"/>
+      <c r="AJ15" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="AK15" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL15" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="AM15" s="8"/>
-      <c r="AN15" s="8" t="n">
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="8" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="n">
         <v>11</v>
       </c>
@@ -2256,13 +2253,13 @@
         <v>41</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F16" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>56</v>
@@ -2291,28 +2288,27 @@
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
       <c r="AD16" s="8"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="8" t="s">
+      <c r="AE16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AG16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
       <c r="AI16" s="8"/>
-      <c r="AJ16" s="8"/>
+      <c r="AJ16" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="AK16" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL16" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="AM16" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN16" s="8" t="n">
+      <c r="AL16" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM16" s="8" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="n">
         <v>12</v>
       </c>
@@ -2326,13 +2322,13 @@
         <v>41</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F17" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="14" t="s">
         <v>92</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>93</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>61</v>
@@ -2344,7 +2340,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="11" t="n">
         <v>4650075420386</v>
@@ -2373,28 +2369,27 @@
       </c>
       <c r="AC17" s="8"/>
       <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8" t="s">
+      <c r="AE17" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG17" s="10" t="n">
+      <c r="AF17" s="10" t="n">
         <v>0.050002</v>
       </c>
+      <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
       <c r="AI17" s="8"/>
-      <c r="AJ17" s="8"/>
+      <c r="AJ17" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="AK17" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL17" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="AM17" s="8"/>
-      <c r="AN17" s="8" t="n">
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="8" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="n">
         <v>13</v>
       </c>
@@ -2408,13 +2403,13 @@
         <v>41</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F18" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="14" t="s">
         <v>94</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>95</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>61</v>
@@ -2426,7 +2421,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N18" s="11" t="n">
         <v>4650075420362</v>
@@ -2455,28 +2450,27 @@
       </c>
       <c r="AC18" s="8"/>
       <c r="AD18" s="8"/>
-      <c r="AE18" s="8"/>
-      <c r="AF18" s="8" t="s">
+      <c r="AE18" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG18" s="10" t="n">
+      <c r="AF18" s="10" t="n">
         <v>0.035006</v>
       </c>
+      <c r="AG18" s="8"/>
       <c r="AH18" s="8"/>
       <c r="AI18" s="8"/>
-      <c r="AJ18" s="8"/>
+      <c r="AJ18" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="AK18" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL18" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="AM18" s="8"/>
-      <c r="AN18" s="8" t="n">
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="8" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="n">
         <v>19</v>
       </c>
@@ -2490,13 +2484,13 @@
         <v>41</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F19" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="14" t="s">
         <v>96</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>97</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>61</v>
@@ -2508,7 +2502,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N19" s="11" t="n">
         <v>4650075420409</v>
@@ -2537,28 +2531,27 @@
       </c>
       <c r="AC19" s="8"/>
       <c r="AD19" s="8"/>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="8" t="s">
+      <c r="AE19" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG19" s="10" t="n">
+      <c r="AF19" s="10" t="n">
         <v>0.035006</v>
       </c>
+      <c r="AG19" s="8"/>
       <c r="AH19" s="8"/>
       <c r="AI19" s="8"/>
-      <c r="AJ19" s="8"/>
+      <c r="AJ19" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="AK19" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL19" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="AM19" s="8"/>
-      <c r="AN19" s="8" t="n">
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="8" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="n">
         <v>14</v>
       </c>
@@ -2572,16 +2565,16 @@
         <v>41</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="H20" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>100</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8" t="n">
@@ -2611,30 +2604,29 @@
       </c>
       <c r="AC20" s="8"/>
       <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="8" t="s">
+      <c r="AE20" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG20" s="10" t="n">
+      <c r="AF20" s="10" t="n">
         <v>0.025001</v>
       </c>
+      <c r="AG20" s="8"/>
       <c r="AH20" s="8"/>
       <c r="AI20" s="8"/>
-      <c r="AJ20" s="8"/>
+      <c r="AJ20" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="AK20" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL20" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="AM20" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN20" s="8" t="n">
+      <c r="AL20" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM20" s="8" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="n">
         <v>15</v>
       </c>
@@ -2648,13 +2640,13 @@
         <v>41</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F21" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="14" t="s">
         <v>102</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>103</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>61</v>
@@ -2666,7 +2658,7 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N21" s="11" t="n">
         <v>4650075420508</v>
@@ -2695,26 +2687,25 @@
       </c>
       <c r="AC21" s="8"/>
       <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8" t="s">
+      <c r="AE21" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="8"/>
       <c r="AH21" s="8"/>
       <c r="AI21" s="8"/>
-      <c r="AJ21" s="8"/>
+      <c r="AJ21" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="AK21" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL21" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="AM21" s="8"/>
-      <c r="AN21" s="16" t="n">
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="18" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="n">
         <v>16</v>
       </c>
@@ -2728,13 +2719,13 @@
         <v>41</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F22" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>105</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>61</v>
@@ -2746,7 +2737,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N22" s="11" t="n">
         <v>4650075420423</v>
@@ -2775,26 +2766,25 @@
       </c>
       <c r="AC22" s="8"/>
       <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8" t="s">
+      <c r="AE22" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="8"/>
       <c r="AH22" s="8"/>
       <c r="AI22" s="8"/>
-      <c r="AJ22" s="8"/>
+      <c r="AJ22" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="AK22" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL22" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="AM22" s="8"/>
-      <c r="AN22" s="16" t="n">
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="18" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="n">
         <v>17</v>
       </c>
@@ -2808,13 +2798,13 @@
         <v>41</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F23" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="20" t="s">
         <v>106</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>107</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>61</v>
@@ -2826,7 +2816,7 @@
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N23" s="11" t="n">
         <v>4650075420485</v>
@@ -2855,26 +2845,25 @@
       </c>
       <c r="AC23" s="8"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="8" t="s">
+      <c r="AE23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="8"/>
       <c r="AH23" s="8"/>
       <c r="AI23" s="8"/>
-      <c r="AJ23" s="8"/>
+      <c r="AJ23" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="AK23" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL23" s="8" t="n">
         <v>18</v>
       </c>
-      <c r="AM23" s="8"/>
-      <c r="AN23" s="16" t="n">
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="18" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="n">
         <v>18</v>
       </c>
@@ -2888,13 +2877,13 @@
         <v>41</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F24" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="14" t="s">
         <v>108</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>109</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>61</v>
@@ -2906,7 +2895,7 @@
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N24" s="11" t="n">
         <v>4650075420447</v>
@@ -2935,26 +2924,25 @@
       </c>
       <c r="AC24" s="8"/>
       <c r="AD24" s="8"/>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="8" t="s">
+      <c r="AE24" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="8"/>
       <c r="AH24" s="8"/>
       <c r="AI24" s="8"/>
-      <c r="AJ24" s="8"/>
+      <c r="AJ24" s="8" t="n">
+        <v>4</v>
+      </c>
       <c r="AK24" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL24" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="AM24" s="8"/>
-      <c r="AN24" s="16" t="n">
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="18" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="n">
         <v>20</v>
       </c>
@@ -2968,13 +2956,13 @@
         <v>41</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F25" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>56</v>
@@ -3003,28 +2991,27 @@
       <c r="AB25" s="8"/>
       <c r="AC25" s="8"/>
       <c r="AD25" s="8"/>
-      <c r="AE25" s="8"/>
-      <c r="AF25" s="8" t="s">
+      <c r="AE25" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AG25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="8"/>
       <c r="AH25" s="8"/>
       <c r="AI25" s="8"/>
-      <c r="AJ25" s="8"/>
+      <c r="AJ25" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="AK25" s="8" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="AL25" s="8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM25" s="8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN25" s="8" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="n">
         <v>21</v>
       </c>
@@ -3038,13 +3025,13 @@
         <v>41</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F26" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="14" t="s">
         <v>112</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>113</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>61</v>
@@ -3056,23 +3043,25 @@
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
-      <c r="N26" s="11"/>
+      <c r="N26" s="11" t="s">
+        <v>113</v>
+      </c>
       <c r="O26" s="11"/>
       <c r="P26" s="11" t="s">
         <v>114</v>
       </c>
       <c r="Q26" s="11"/>
       <c r="R26" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="S26" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="T26" s="17" t="s">
+      <c r="T26" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="U26" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="U26" s="17" t="s">
-        <v>117</v>
       </c>
       <c r="V26" s="8"/>
       <c r="W26" s="8"/>
@@ -3087,28 +3076,27 @@
       </c>
       <c r="AC26" s="8"/>
       <c r="AD26" s="8"/>
-      <c r="AE26" s="8"/>
-      <c r="AF26" s="8" t="s">
+      <c r="AE26" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG26" s="10" t="n">
+      <c r="AF26" s="10" t="n">
         <v>0.034983</v>
       </c>
+      <c r="AG26" s="8"/>
       <c r="AH26" s="8"/>
       <c r="AI26" s="8"/>
-      <c r="AJ26" s="8"/>
+      <c r="AJ26" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="AK26" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL26" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="AM26" s="8"/>
-      <c r="AN26" s="8" t="n">
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="8" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="n">
         <v>23</v>
       </c>
@@ -3122,13 +3110,13 @@
         <v>41</v>
       </c>
       <c r="E27" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="G27" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>120</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>61</v>
@@ -3140,10 +3128,10 @@
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="N27" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
@@ -3161,36 +3149,35 @@
       <c r="X27" s="8"/>
       <c r="Y27" s="8"/>
       <c r="Z27" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA27" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="AA27" s="8" t="s">
-        <v>124</v>
       </c>
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
       <c r="AD27" s="8"/>
-      <c r="AE27" s="8"/>
-      <c r="AF27" s="8" t="s">
+      <c r="AE27" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG27" s="10" t="n">
+      <c r="AF27" s="10" t="n">
         <v>0.166667</v>
       </c>
-      <c r="AH27" s="15"/>
-      <c r="AI27" s="19"/>
-      <c r="AJ27" s="8"/>
+      <c r="AG27" s="17"/>
+      <c r="AH27" s="21"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="AK27" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL27" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="AM27" s="8"/>
-      <c r="AN27" s="8" t="n">
+      <c r="AL27" s="8"/>
+      <c r="AM27" s="8" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="n">
         <v>24</v>
       </c>
@@ -3204,16 +3191,16 @@
         <v>41</v>
       </c>
       <c r="E28" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="G28" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="H28" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>128</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8" t="n">
@@ -3237,38 +3224,37 @@
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
       <c r="Z28" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA28" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB28" s="8"/>
       <c r="AC28" s="8"/>
       <c r="AD28" s="8"/>
-      <c r="AE28" s="8"/>
-      <c r="AF28" s="8" t="s">
+      <c r="AE28" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG28" s="10" t="n">
+      <c r="AF28" s="10" t="n">
         <v>0.083333</v>
       </c>
-      <c r="AH28" s="15"/>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="8"/>
       <c r="AI28" s="8"/>
-      <c r="AJ28" s="8"/>
+      <c r="AJ28" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="AK28" s="8" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="AL28" s="8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM28" s="8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AN28" s="8" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="n">
         <v>25</v>
       </c>
@@ -3282,13 +3268,13 @@
         <v>41</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F29" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>131</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>61</v>
@@ -3300,13 +3286,13 @@
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="N29" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="N29" s="8" t="s">
-        <v>133</v>
-      </c>
       <c r="O29" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
@@ -3315,44 +3301,43 @@
         <v>62</v>
       </c>
       <c r="T29" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="U29" s="8"/>
       <c r="V29" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W29" s="8"/>
       <c r="X29" s="8"/>
       <c r="Y29" s="8"/>
       <c r="Z29" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA29" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
       <c r="AD29" s="8"/>
-      <c r="AE29" s="8"/>
-      <c r="AF29" s="8" t="s">
+      <c r="AE29" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG29" s="10"/>
-      <c r="AH29" s="15"/>
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="17"/>
+      <c r="AH29" s="8"/>
       <c r="AI29" s="8"/>
-      <c r="AJ29" s="8"/>
+      <c r="AJ29" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="AK29" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL29" s="8" t="n">
         <v>24</v>
       </c>
-      <c r="AM29" s="8"/>
-      <c r="AN29" s="8" t="n">
+      <c r="AL29" s="8"/>
+      <c r="AM29" s="8" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="n">
         <v>26</v>
       </c>
@@ -3366,16 +3351,16 @@
         <v>41</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F30" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="G30" s="8" t="s">
-        <v>137</v>
-      </c>
       <c r="H30" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8" t="n">
@@ -3399,38 +3384,37 @@
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
       <c r="Z30" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA30" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
       <c r="AD30" s="8"/>
-      <c r="AE30" s="8"/>
-      <c r="AF30" s="8" t="s">
+      <c r="AE30" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG30" s="10" t="n">
+      <c r="AF30" s="10" t="n">
         <v>0.083333</v>
       </c>
-      <c r="AH30" s="15"/>
+      <c r="AG30" s="17"/>
+      <c r="AH30" s="8"/>
       <c r="AI30" s="8"/>
-      <c r="AJ30" s="8"/>
+      <c r="AJ30" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="AK30" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL30" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="AM30" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN30" s="8" t="n">
+      <c r="AL30" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM30" s="8" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="n">
         <v>27</v>
       </c>
@@ -3444,13 +3428,13 @@
         <v>41</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F31" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>141</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>61</v>
@@ -3462,13 +3446,13 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
@@ -3477,7 +3461,7 @@
         <v>62</v>
       </c>
       <c r="T31" s="8" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
@@ -3485,34 +3469,33 @@
       <c r="X31" s="8"/>
       <c r="Y31" s="8"/>
       <c r="Z31" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA31" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
       <c r="AD31" s="8"/>
-      <c r="AE31" s="8"/>
-      <c r="AF31" s="8" t="s">
+      <c r="AE31" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG31" s="10"/>
-      <c r="AH31" s="15"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="17"/>
+      <c r="AH31" s="8"/>
       <c r="AI31" s="8"/>
-      <c r="AJ31" s="8"/>
+      <c r="AJ31" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="AK31" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL31" s="8" t="n">
         <v>26</v>
       </c>
-      <c r="AM31" s="8"/>
-      <c r="AN31" s="8" t="n">
+      <c r="AL31" s="8"/>
+      <c r="AM31" s="8" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="n">
         <v>28</v>
       </c>
@@ -3526,13 +3509,13 @@
         <v>41</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>61</v>
@@ -3544,59 +3527,58 @@
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S32" s="8" t="s">
         <v>62</v>
       </c>
       <c r="T32" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U32" s="8"/>
       <c r="V32" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W32" s="8"/>
       <c r="X32" s="8"/>
       <c r="Y32" s="8"/>
       <c r="Z32" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA32" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB32" s="8"/>
       <c r="AC32" s="8"/>
       <c r="AD32" s="8"/>
-      <c r="AE32" s="8"/>
-      <c r="AF32" s="8" t="s">
+      <c r="AE32" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG32" s="10"/>
-      <c r="AH32" s="15"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="17"/>
+      <c r="AH32" s="8"/>
       <c r="AI32" s="8"/>
-      <c r="AJ32" s="8"/>
+      <c r="AJ32" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="AK32" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL32" s="8" t="n">
         <v>27</v>
       </c>
-      <c r="AM32" s="8"/>
-      <c r="AN32" s="8" t="n">
+      <c r="AL32" s="8"/>
+      <c r="AM32" s="8" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="n">
         <v>29</v>
       </c>
@@ -3607,19 +3589,19 @@
         <v>40</v>
       </c>
       <c r="D33" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="G33" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>150</v>
-      </c>
       <c r="H33" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8" t="n">
@@ -3647,30 +3629,29 @@
       <c r="AB33" s="8"/>
       <c r="AC33" s="8"/>
       <c r="AD33" s="8"/>
-      <c r="AE33" s="8"/>
-      <c r="AF33" s="8" t="s">
+      <c r="AE33" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG33" s="20" t="n">
+      <c r="AF33" s="22" t="n">
         <v>0.12</v>
       </c>
+      <c r="AG33" s="8"/>
       <c r="AH33" s="8"/>
       <c r="AI33" s="8"/>
-      <c r="AJ33" s="8"/>
+      <c r="AJ33" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="AK33" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL33" s="8" t="n">
         <v>29</v>
       </c>
-      <c r="AM33" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN33" s="8" t="n">
+      <c r="AL33" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM33" s="8" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="n">
         <v>30</v>
       </c>
@@ -3681,76 +3662,75 @@
         <v>40</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="I34" s="22"/>
-      <c r="J34" s="23" t="n">
+      <c r="I34" s="24"/>
+      <c r="J34" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
+        <v>152</v>
+      </c>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
       <c r="Q34" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="R34" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="S34" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="T34" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="U34" s="24"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="22"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="22"/>
+      <c r="T34" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="U34" s="0"/>
+      <c r="V34" s="24"/>
+      <c r="W34" s="24"/>
+      <c r="X34" s="24"/>
+      <c r="Y34" s="24"/>
+      <c r="Z34" s="24"/>
       <c r="AA34" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB34" s="22"/>
-      <c r="AC34" s="22"/>
-      <c r="AD34" s="22"/>
-      <c r="AE34" s="8"/>
-      <c r="AF34" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB34" s="24"/>
+      <c r="AC34" s="24"/>
+      <c r="AD34" s="24"/>
+      <c r="AE34" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG34" s="22"/>
-      <c r="AH34" s="22"/>
-      <c r="AI34" s="22"/>
-      <c r="AJ34" s="22"/>
-      <c r="AK34" s="23" t="n">
+      <c r="AF34" s="24"/>
+      <c r="AG34" s="24"/>
+      <c r="AH34" s="24"/>
+      <c r="AI34" s="24"/>
+      <c r="AJ34" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="AL34" s="23" t="n">
+      <c r="AK34" s="25" t="n">
         <v>900</v>
       </c>
-      <c r="AM34" s="23"/>
-      <c r="AN34" s="23" t="n">
+      <c r="AL34" s="25"/>
+      <c r="AM34" s="25" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="n">
         <v>31</v>
       </c>
@@ -3761,70 +3741,69 @@
         <v>40</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="I35" s="22"/>
-      <c r="J35" s="23" t="n">
+        <v>99</v>
+      </c>
+      <c r="I35" s="24"/>
+      <c r="J35" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
       <c r="S35" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="22"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="24"/>
+      <c r="V35" s="24"/>
+      <c r="W35" s="24"/>
+      <c r="X35" s="24"/>
+      <c r="Y35" s="24"/>
+      <c r="Z35" s="24"/>
       <c r="AA35" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB35" s="22"/>
-      <c r="AC35" s="22"/>
-      <c r="AD35" s="22"/>
-      <c r="AE35" s="8"/>
-      <c r="AF35" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB35" s="24"/>
+      <c r="AC35" s="24"/>
+      <c r="AD35" s="24"/>
+      <c r="AE35" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG35" s="22"/>
-      <c r="AH35" s="22"/>
-      <c r="AI35" s="22"/>
-      <c r="AJ35" s="22"/>
-      <c r="AK35" s="23" t="n">
+      <c r="AF35" s="24"/>
+      <c r="AG35" s="24"/>
+      <c r="AH35" s="24"/>
+      <c r="AI35" s="24"/>
+      <c r="AJ35" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="AL35" s="23" t="n">
+      <c r="AK35" s="25" t="n">
         <v>901</v>
       </c>
-      <c r="AM35" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN35" s="23" t="n">
+      <c r="AL35" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM35" s="25" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="n">
         <v>32</v>
       </c>
@@ -3835,76 +3814,75 @@
         <v>40</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="I36" s="22"/>
-      <c r="J36" s="23" t="n">
+      <c r="I36" s="24"/>
+      <c r="J36" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
       <c r="M36" s="8"/>
-      <c r="N36" s="22" t="s">
-        <v>162</v>
+      <c r="N36" s="24" t="s">
+        <v>160</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22" t="s">
-        <v>162</v>
+        <v>141</v>
+      </c>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24" t="s">
+        <v>160</v>
       </c>
       <c r="S36" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="T36" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="22"/>
-      <c r="Z36" s="22"/>
+      <c r="T36" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="U36" s="24"/>
+      <c r="V36" s="24"/>
+      <c r="W36" s="24"/>
+      <c r="X36" s="24"/>
+      <c r="Y36" s="24"/>
+      <c r="Z36" s="24"/>
       <c r="AA36" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB36" s="22"/>
-      <c r="AC36" s="22"/>
-      <c r="AD36" s="22"/>
-      <c r="AE36" s="8"/>
-      <c r="AF36" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB36" s="24"/>
+      <c r="AC36" s="24"/>
+      <c r="AD36" s="24"/>
+      <c r="AE36" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG36" s="22"/>
-      <c r="AH36" s="22"/>
-      <c r="AI36" s="22"/>
-      <c r="AJ36" s="22"/>
-      <c r="AK36" s="23" t="n">
+      <c r="AF36" s="24"/>
+      <c r="AG36" s="24"/>
+      <c r="AH36" s="24"/>
+      <c r="AI36" s="24"/>
+      <c r="AJ36" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="AL36" s="23" t="n">
+      <c r="AK36" s="25" t="n">
         <v>902</v>
       </c>
-      <c r="AM36" s="23"/>
-      <c r="AN36" s="23" t="n">
+      <c r="AL36" s="25"/>
+      <c r="AM36" s="25" t="n">
         <v>901</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="n">
         <v>33</v>
       </c>
@@ -3915,74 +3893,73 @@
         <v>40</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H37" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="I37" s="22"/>
-      <c r="J37" s="23" t="n">
+      <c r="I37" s="24"/>
+      <c r="J37" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
       <c r="M37" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N37" s="8" t="n">
         <v>5000034</v>
       </c>
       <c r="O37" s="8"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
       <c r="S37" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="T37" s="22" t="s">
+      <c r="T37" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="U37" s="22"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="22"/>
-      <c r="Y37" s="22"/>
-      <c r="Z37" s="22"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="24"/>
+      <c r="W37" s="24"/>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="24"/>
+      <c r="Z37" s="24"/>
       <c r="AA37" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB37" s="22"/>
-      <c r="AC37" s="22"/>
-      <c r="AD37" s="22"/>
-      <c r="AE37" s="8"/>
-      <c r="AF37" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB37" s="24"/>
+      <c r="AC37" s="24"/>
+      <c r="AD37" s="24"/>
+      <c r="AE37" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AG37" s="22"/>
-      <c r="AH37" s="22"/>
-      <c r="AI37" s="22"/>
-      <c r="AJ37" s="22"/>
-      <c r="AK37" s="23" t="n">
+      <c r="AF37" s="24"/>
+      <c r="AG37" s="24"/>
+      <c r="AH37" s="24"/>
+      <c r="AI37" s="24"/>
+      <c r="AJ37" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="AL37" s="23" t="n">
+      <c r="AK37" s="25" t="n">
         <v>903</v>
       </c>
-      <c r="AM37" s="23"/>
-      <c r="AN37" s="23" t="n">
+      <c r="AL37" s="25"/>
+      <c r="AM37" s="25" t="n">
         <v>901</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="n">
         <v>34</v>
       </c>
@@ -3993,19 +3970,19 @@
         <v>40</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E38" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="G38" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="F38" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>168</v>
-      </c>
       <c r="H38" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8" t="n">
@@ -4027,36 +4004,35 @@
       <c r="X38" s="8"/>
       <c r="Y38" s="8"/>
       <c r="Z38" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AA38" s="8"/>
       <c r="AB38" s="8"/>
       <c r="AC38" s="8"/>
       <c r="AD38" s="8"/>
-      <c r="AE38" s="8"/>
-      <c r="AF38" s="15" t="s">
+      <c r="AE38" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="AG38" s="10" t="n">
+      <c r="AF38" s="10" t="n">
         <v>0.046667</v>
       </c>
+      <c r="AG38" s="8"/>
       <c r="AH38" s="8"/>
       <c r="AI38" s="8"/>
-      <c r="AJ38" s="8"/>
+      <c r="AJ38" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="AK38" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL38" s="8" t="n">
         <v>33</v>
       </c>
-      <c r="AM38" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="AN38" s="8" t="n">
+      <c r="AL38" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="AM38" s="8" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="n">
         <v>35</v>
       </c>
@@ -4067,19 +4043,19 @@
         <v>40</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="F39" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H39" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>173</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8" t="n">
@@ -4097,7 +4073,7 @@
         <v>62</v>
       </c>
       <c r="T39" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="U39" s="8"/>
       <c r="V39" s="8"/>
@@ -4108,31 +4084,30 @@
         <v>64</v>
       </c>
       <c r="AA39" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AB39" s="8"/>
       <c r="AC39" s="8"/>
       <c r="AD39" s="8"/>
-      <c r="AE39" s="8"/>
-      <c r="AF39" s="15" t="s">
+      <c r="AE39" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="AG39" s="10"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="8"/>
       <c r="AH39" s="8"/>
       <c r="AI39" s="8"/>
-      <c r="AJ39" s="8"/>
+      <c r="AJ39" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="AK39" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL39" s="8" t="n">
         <v>34</v>
       </c>
-      <c r="AM39" s="8"/>
-      <c r="AN39" s="8" t="n">
+      <c r="AL39" s="8"/>
+      <c r="AM39" s="8" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="n">
         <v>36</v>
       </c>
@@ -4143,19 +4118,19 @@
         <v>40</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="F40" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="H40" s="8" t="s">
         <v>176</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>178</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8" t="n">
@@ -4164,7 +4139,7 @@
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N40" s="8" t="s">
         <v>114</v>
@@ -4177,7 +4152,7 @@
         <v>62</v>
       </c>
       <c r="T40" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="U40" s="8"/>
       <c r="V40" s="8"/>
@@ -4185,34 +4160,33 @@
       <c r="X40" s="8"/>
       <c r="Y40" s="8"/>
       <c r="Z40" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AA40" s="8"/>
       <c r="AB40" s="8"/>
       <c r="AC40" s="8"/>
       <c r="AD40" s="8"/>
-      <c r="AE40" s="8"/>
-      <c r="AF40" s="15" t="s">
+      <c r="AE40" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="AG40" s="10"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="8"/>
       <c r="AH40" s="8"/>
-      <c r="AI40" s="8"/>
-      <c r="AJ40" s="8" t="s">
-        <v>180</v>
+      <c r="AI40" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ40" s="8" t="n">
+        <v>3</v>
       </c>
       <c r="AK40" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL40" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="AM40" s="8"/>
-      <c r="AN40" s="8" t="n">
+      <c r="AL40" s="8"/>
+      <c r="AM40" s="8" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="n">
         <v>37</v>
       </c>
@@ -4223,19 +4197,19 @@
         <v>40</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="F41" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="H41" s="8" t="s">
         <v>181</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>183</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8" t="n">
@@ -4244,7 +4218,7 @@
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
       <c r="M41" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N41" s="8" t="s">
         <v>114</v>
@@ -4257,7 +4231,7 @@
         <v>62</v>
       </c>
       <c r="T41" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="U41" s="8"/>
       <c r="V41" s="8"/>
@@ -4265,34 +4239,33 @@
       <c r="X41" s="8"/>
       <c r="Y41" s="8"/>
       <c r="Z41" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AA41" s="8"/>
       <c r="AB41" s="8"/>
       <c r="AC41" s="8"/>
       <c r="AD41" s="8"/>
-      <c r="AE41" s="8"/>
-      <c r="AF41" s="15" t="s">
+      <c r="AE41" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="AG41" s="10"/>
+      <c r="AF41" s="10"/>
+      <c r="AG41" s="8"/>
       <c r="AH41" s="8"/>
-      <c r="AI41" s="8"/>
-      <c r="AJ41" s="8" t="s">
-        <v>184</v>
+      <c r="AI41" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ41" s="8" t="n">
+        <v>3</v>
       </c>
       <c r="AK41" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL41" s="8" t="n">
         <v>36</v>
       </c>
-      <c r="AM41" s="8"/>
-      <c r="AN41" s="8" t="n">
+      <c r="AL41" s="8"/>
+      <c r="AM41" s="8" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="n">
         <v>38</v>
       </c>
@@ -4303,22 +4276,22 @@
         <v>40</v>
       </c>
       <c r="D42" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="G42" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="E42" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="F42" s="25" t="s">
+      <c r="H42" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="G42" s="25" t="s">
+      <c r="I42" s="8" t="s">
         <v>187</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>189</v>
       </c>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -4331,7 +4304,7 @@
       <c r="R42" s="8"/>
       <c r="S42" s="8"/>
       <c r="T42" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="U42" s="8"/>
       <c r="V42" s="8"/>
@@ -4344,21 +4317,20 @@
       <c r="AC42" s="8"/>
       <c r="AD42" s="8"/>
       <c r="AE42" s="8"/>
-      <c r="AF42" s="8"/>
-      <c r="AG42" s="10"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="8"/>
       <c r="AH42" s="8"/>
       <c r="AI42" s="8"/>
       <c r="AJ42" s="8"/>
-      <c r="AK42" s="8"/>
+      <c r="AK42" s="8" t="n">
+        <v>38</v>
+      </c>
       <c r="AL42" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM42" s="8" t="n">
         <v>33</v>
       </c>
-      <c r="AN42" s="8"/>
+      <c r="AM42" s="8"/>
     </row>
-    <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="n">
         <v>39</v>
       </c>
@@ -4369,29 +4341,29 @@
         <v>40</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="F43" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="H43" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="G43" s="25" t="s">
+      <c r="I43" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>194</v>
       </c>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
       <c r="N43" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O43" s="8"/>
       <c r="P43" s="8"/>
@@ -4399,7 +4371,7 @@
       <c r="R43" s="8"/>
       <c r="S43" s="8"/>
       <c r="T43" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="U43" s="8"/>
       <c r="V43" s="8"/>
@@ -4412,21 +4384,20 @@
       <c r="AC43" s="8"/>
       <c r="AD43" s="8"/>
       <c r="AE43" s="8"/>
-      <c r="AF43" s="8"/>
-      <c r="AG43" s="10"/>
+      <c r="AF43" s="10"/>
+      <c r="AG43" s="8"/>
       <c r="AH43" s="8"/>
       <c r="AI43" s="8"/>
       <c r="AJ43" s="8"/>
-      <c r="AK43" s="8"/>
+      <c r="AK43" s="8" t="n">
+        <v>39</v>
+      </c>
       <c r="AL43" s="8" t="n">
-        <v>39</v>
-      </c>
-      <c r="AM43" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="AN43" s="8"/>
+      <c r="AM43" s="8"/>
     </row>
-    <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="n">
         <v>40</v>
       </c>
@@ -4437,29 +4408,29 @@
         <v>40</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O44" s="8"/>
       <c r="P44" s="8"/>
@@ -4467,7 +4438,7 @@
       <c r="R44" s="8"/>
       <c r="S44" s="8"/>
       <c r="T44" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="U44" s="8"/>
       <c r="V44" s="8"/>
@@ -4480,21 +4451,20 @@
       <c r="AC44" s="8"/>
       <c r="AD44" s="8"/>
       <c r="AE44" s="8"/>
-      <c r="AF44" s="8"/>
-      <c r="AG44" s="10"/>
+      <c r="AF44" s="10"/>
+      <c r="AG44" s="8"/>
       <c r="AH44" s="8"/>
       <c r="AI44" s="8"/>
       <c r="AJ44" s="8"/>
-      <c r="AK44" s="8"/>
+      <c r="AK44" s="8" t="n">
+        <v>40</v>
+      </c>
       <c r="AL44" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM44" s="8" t="n">
         <v>23</v>
       </c>
-      <c r="AN44" s="8"/>
+      <c r="AM44" s="8"/>
     </row>
-    <row r="45" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="n">
         <v>41</v>
       </c>
@@ -4505,29 +4475,29 @@
         <v>40</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O45" s="8"/>
       <c r="P45" s="8"/>
@@ -4535,7 +4505,7 @@
       <c r="R45" s="8"/>
       <c r="S45" s="8"/>
       <c r="T45" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="U45" s="8"/>
       <c r="V45" s="8"/>
@@ -4548,21 +4518,20 @@
       <c r="AC45" s="8"/>
       <c r="AD45" s="8"/>
       <c r="AE45" s="8"/>
-      <c r="AF45" s="8"/>
-      <c r="AG45" s="10"/>
+      <c r="AF45" s="10"/>
+      <c r="AG45" s="8"/>
       <c r="AH45" s="8"/>
       <c r="AI45" s="8"/>
       <c r="AJ45" s="8"/>
-      <c r="AK45" s="8"/>
+      <c r="AK45" s="8" t="n">
+        <v>41</v>
+      </c>
       <c r="AL45" s="8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM45" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="AN45" s="8"/>
+      <c r="AM45" s="8"/>
     </row>
-    <row r="46" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="n">
         <v>42</v>
       </c>
@@ -4573,29 +4542,29 @@
         <v>40</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E46" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G46" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="F46" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="G46" s="25" t="s">
-        <v>202</v>
-      </c>
       <c r="H46" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
       <c r="N46" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O46" s="8"/>
       <c r="P46" s="8"/>
@@ -4603,7 +4572,7 @@
       <c r="R46" s="8"/>
       <c r="S46" s="8"/>
       <c r="T46" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="U46" s="8"/>
       <c r="V46" s="8"/>
@@ -4616,21 +4585,20 @@
       <c r="AC46" s="8"/>
       <c r="AD46" s="8"/>
       <c r="AE46" s="8"/>
-      <c r="AF46" s="8"/>
-      <c r="AG46" s="10"/>
+      <c r="AF46" s="10"/>
+      <c r="AG46" s="8"/>
       <c r="AH46" s="8"/>
       <c r="AI46" s="8"/>
       <c r="AJ46" s="8"/>
-      <c r="AK46" s="8"/>
-      <c r="AL46" s="8" t="n">
+      <c r="AK46" s="8" t="n">
         <v>42</v>
       </c>
-      <c r="AM46" s="16" t="n">
+      <c r="AL46" s="18" t="n">
         <v>29</v>
       </c>
-      <c r="AN46" s="8"/>
+      <c r="AM46" s="8"/>
     </row>
-    <row r="47" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="n">
         <v>43</v>
       </c>
@@ -4641,29 +4609,29 @@
         <v>40</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E47" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="G47" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="F47" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="G47" s="25" t="s">
-        <v>205</v>
-      </c>
       <c r="H47" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O47" s="8"/>
       <c r="P47" s="8"/>
@@ -4671,7 +4639,7 @@
       <c r="R47" s="8"/>
       <c r="S47" s="8"/>
       <c r="T47" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="U47" s="8"/>
       <c r="V47" s="8"/>
@@ -4684,21 +4652,20 @@
       <c r="AC47" s="8"/>
       <c r="AD47" s="8"/>
       <c r="AE47" s="8"/>
-      <c r="AF47" s="8"/>
-      <c r="AG47" s="10"/>
+      <c r="AF47" s="10"/>
+      <c r="AG47" s="8"/>
       <c r="AH47" s="8"/>
       <c r="AI47" s="8"/>
       <c r="AJ47" s="8"/>
-      <c r="AK47" s="8"/>
-      <c r="AL47" s="8" t="n">
+      <c r="AK47" s="8" t="n">
         <v>44</v>
       </c>
-      <c r="AM47" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="AN47" s="8"/>
+      <c r="AL47" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM47" s="8"/>
     </row>
-    <row r="48" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="n">
         <v>44</v>
       </c>
@@ -4709,29 +4676,29 @@
         <v>40</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E48" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="G48" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="F48" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="G48" s="25" t="s">
-        <v>205</v>
-      </c>
       <c r="H48" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
       <c r="N48" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O48" s="8"/>
       <c r="P48" s="8"/>
@@ -4739,7 +4706,7 @@
       <c r="R48" s="8"/>
       <c r="S48" s="8"/>
       <c r="T48" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="U48" s="8"/>
       <c r="V48" s="8"/>
@@ -4752,22 +4719,21 @@
       <c r="AC48" s="8"/>
       <c r="AD48" s="8"/>
       <c r="AE48" s="8"/>
-      <c r="AF48" s="8"/>
-      <c r="AG48" s="10"/>
+      <c r="AF48" s="10"/>
+      <c r="AG48" s="8"/>
       <c r="AH48" s="8"/>
       <c r="AI48" s="8"/>
       <c r="AJ48" s="8"/>
-      <c r="AK48" s="8"/>
-      <c r="AL48" s="8" t="n">
+      <c r="AK48" s="8" t="n">
         <v>45</v>
       </c>
-      <c r="AM48" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="AN48" s="8"/>
+      <c r="AL48" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM48" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN48"/>
+  <autoFilter ref="A1:AM48"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - CAP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="HoReCa Bar Tavern_Night Club" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,6 +28,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="211">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -704,6 +705,15 @@
 35
 36
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer</t>
   </si>
 </sst>
 </file>
@@ -1038,56 +1048,56 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AM48"/>
+  <dimension ref="A1:AM49"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.2418604651163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6837209302326"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.7627906976744"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.5023255813953"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.7767441860465"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="50.8651162790698"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="55.2046511627907"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="30.9627906976744"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.1162790697674"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.3302325581395"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="14.8558139534884"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.4"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="225.120930232558"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="138.083720930233"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.7348837209302"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="17.753488372093"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="25.893023255814"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="34.0372093023256"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="20.8325581395349"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="15.0372093023256"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="8.88372093023256"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="15.9395348837209"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="23.906976744186"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="19.3767441860465"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.6279069767442"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.0883720930233"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="67.8744186046512"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="22.093023255814"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="27.706976744186"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="28.246511627907"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="17.9348837209302"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="14.8558139534884"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.953488372093"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="14.4976744186047"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="32.7674418604651"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="8.70232558139535"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="12.1441860465116"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="2" width="10.5116279069767"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="10.5023255813953"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.8093023255814"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.8"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="52.4232558139535"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="56.8558139534884"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="31.8744186046512"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.5813953488372"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.753488372093"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="231.972093023256"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="142.260465116279"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.3953488372093"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.2139534883721"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="26.5813953488372"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="34.9488372093023"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="21.4139534883721"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="15.3813953488372"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="16.4883720930233"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.4883720930233"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="19.9348837209302"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="25.3488372093023"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.8604651162791"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="69.8976744186047"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="22.7674418604651"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="28.5488372093023"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="29.0418604651163"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="18.3348837209302"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="14.4"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="33.7209302325581"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="8.98139534883721"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="10.2139534883721"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="2" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="10.706976744186"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4732,6 +4742,67 @@
       </c>
       <c r="AM48" s="8"/>
     </row>
+    <row r="49" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="8" t="n">
+        <v>904</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G49" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8"/>
+      <c r="AD49" s="8"/>
+      <c r="AE49" s="8"/>
+      <c r="AF49" s="10"/>
+      <c r="AG49" s="8"/>
+      <c r="AH49" s="8"/>
+      <c r="AI49" s="8"/>
+      <c r="AJ49" s="8"/>
+      <c r="AK49" s="8" t="n">
+        <v>904</v>
+      </c>
+      <c r="AL49" s="13"/>
+      <c r="AM49" s="8"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AM48"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - CAP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="HoReCa Bar Tavern_Night Club" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,6 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="208">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -705,15 +704,6 @@
 35
 36
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integer</t>
   </si>
 </sst>
 </file>
@@ -1048,56 +1038,56 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AM49"/>
+  <dimension ref="A1:AM48"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.5674418604651"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.8093023255814"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.8"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.153488372093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="52.4232558139535"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="56.8558139534884"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="31.8744186046512"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.5813953488372"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.5813953488372"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.753488372093"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="231.972093023256"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="142.260465116279"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.3953488372093"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.2139534883721"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="26.5813953488372"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="34.9488372093023"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="21.4139534883721"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="15.3813953488372"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="9.10697674418605"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="16.4883720930233"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.4883720930233"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="19.9348837209302"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="25.3488372093023"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.8604651162791"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="69.8976744186047"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="22.7674418604651"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="28.5488372093023"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="29.0418604651163"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="18.3348837209302"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="14.4"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="14.8883720930233"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="33.7209302325581"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="8.98139534883721"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="10.2139534883721"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="2" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.2418604651163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6837209302326"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.7627906976744"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.5023255813953"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.7767441860465"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="50.8651162790698"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="55.2046511627907"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="30.9627906976744"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.1162790697674"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.3302325581395"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="14.8558139534884"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.4"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="225.120930232558"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="138.083720930233"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.7348837209302"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="17.753488372093"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="25.893023255814"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="34.0372093023256"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="20.8325581395349"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="15.0372093023256"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="8.88372093023256"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="15.9395348837209"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="23.906976744186"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="19.3767441860465"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.6279069767442"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.0883720930233"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="67.8744186046512"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="22.093023255814"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="27.706976744186"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="28.246511627907"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="17.9348837209302"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="14.8558139534884"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.953488372093"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="14.4976744186047"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="32.7674418604651"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="8.70232558139535"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="9.96744186046512"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="12.1441860465116"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="2" width="10.5116279069767"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="10.5023255813953"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4742,67 +4732,6 @@
       </c>
       <c r="AM48" s="8"/>
     </row>
-    <row r="49" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8" t="n">
-        <v>904</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="G49" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="8"/>
-      <c r="T49" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="U49" s="8"/>
-      <c r="V49" s="8"/>
-      <c r="W49" s="8"/>
-      <c r="X49" s="8"/>
-      <c r="Y49" s="8"/>
-      <c r="Z49" s="8"/>
-      <c r="AA49" s="8"/>
-      <c r="AB49" s="8"/>
-      <c r="AC49" s="8"/>
-      <c r="AD49" s="8"/>
-      <c r="AE49" s="8"/>
-      <c r="AF49" s="10"/>
-      <c r="AG49" s="8"/>
-      <c r="AH49" s="8"/>
-      <c r="AI49" s="8"/>
-      <c r="AJ49" s="8"/>
-      <c r="AK49" s="8" t="n">
-        <v>904</v>
-      </c>
-      <c r="AL49" s="13"/>
-      <c r="AM49" s="8"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:AM48"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC HoReCa BarTavernClub - CAP.xlsx
@@ -28,6 +28,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'HoReCa Bar Tavern_Night Club'!$A$1:$AM$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="211">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -705,12 +706,21 @@
 36
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
@@ -718,6 +728,8 @@
     <numFmt numFmtId="168" formatCode="0.00"/>
     <numFmt numFmtId="169" formatCode="0%"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="@"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -848,7 +860,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -957,6 +969,22 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1038,56 +1066,56 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AM48"/>
+  <dimension ref="1:49"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="AB1" activeCellId="0" sqref="AB1"/>
+      <selection pane="bottomLeft" activeCell="AB49" activeCellId="0" sqref="49:49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.2418604651163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6837209302326"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.7627906976744"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.5023255813953"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.7767441860465"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="50.8651162790698"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="55.2046511627907"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="30.9627906976744"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.1162790697674"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.3302325581395"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="14.8558139534884"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.4"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="225.120930232558"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="138.083720930233"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.7348837209302"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="17.753488372093"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="25.893023255814"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="34.0372093023256"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="20.8325581395349"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="15.0372093023256"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="8.88372093023256"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="15.9395348837209"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="23.906976744186"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="19.3767441860465"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.6279069767442"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.0883720930233"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="67.8744186046512"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="22.093023255814"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="27.706976744186"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="28.246511627907"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="17.9348837209302"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="14.8558139534884"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="13.953488372093"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="14.4976744186047"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="32.7674418604651"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="8.70232558139535"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="12.1441860465116"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="2" width="10.5116279069767"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="10.5023255813953"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.8093023255814"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.8"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="52.4232558139535"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="56.8558139534884"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="31.8744186046512"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.5813953488372"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.753488372093"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="231.972093023256"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="142.260465116279"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.3953488372093"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="18.2139534883721"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="26.5813953488372"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="34.9488372093023"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="21.4139534883721"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="15.3813953488372"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="16.4883720930233"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.4883720930233"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="19.9348837209302"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="25.3488372093023"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.8604651162791"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="69.8976744186047"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="22.7674418604651"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="28.5488372093023"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="29.0418604651163"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="18.3348837209302"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="14.4"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="33.7209302325581"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="8.98139534883721"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="10.2139534883721"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="2" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="10.706976744186"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4732,6 +4760,68 @@
       </c>
       <c r="AM48" s="8"/>
     </row>
+    <row r="49" s="30" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="8" t="n">
+        <v>904</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G49" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8"/>
+      <c r="AD49" s="29"/>
+      <c r="AE49" s="8"/>
+      <c r="AF49" s="8"/>
+      <c r="AG49" s="8"/>
+      <c r="AH49" s="8"/>
+      <c r="AI49" s="8"/>
+      <c r="AJ49" s="8"/>
+      <c r="AK49" s="8" t="n">
+        <v>904</v>
+      </c>
+      <c r="AL49" s="8"/>
+      <c r="AM49" s="8"/>
+      <c r="AMJ49" s="0"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AM48"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
